--- a/excel/collective/zestawy_dla_uczniow/zestaw_036.xlsx
+++ b/excel/collective/zestawy_dla_uczniow/zestaw_036.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="308">
   <si>
     <t>ZESTAW ZADAŃ NR 36 - CZĘŚĆ 1</t>
   </si>
@@ -61,19 +61,19 @@
     <t>Przedmiot</t>
   </si>
   <si>
-    <t>Kacper Krawczyk</t>
-  </si>
-  <si>
-    <t>Lena Kaźmierczak</t>
-  </si>
-  <si>
-    <t>Szymon Nowak</t>
+    <t>Jakub Lewandowski</t>
+  </si>
+  <si>
+    <t>Natalia Czarnecka</t>
   </si>
   <si>
     <t>Hanna Król</t>
   </si>
   <si>
-    <t>Zuzanna Malinowska</t>
+    <t>Zuzanna Zawadzka</t>
+  </si>
+  <si>
+    <t>Anna Jaworska</t>
   </si>
   <si>
     <t>ŚREDNIA</t>
@@ -160,40 +160,34 @@
     <t>Razem (zł)</t>
   </si>
   <si>
-    <t>Blok rysunkowy A4</t>
-  </si>
-  <si>
-    <t>7,20</t>
-  </si>
-  <si>
-    <t>Zeszyt 60 kartek</t>
-  </si>
-  <si>
-    <t>4,40</t>
-  </si>
-  <si>
-    <t>Linijka 30 cm</t>
-  </si>
-  <si>
-    <t>4,60</t>
+    <t>Farby plakatowe 12 kolorów</t>
+  </si>
+  <si>
+    <t>22,20</t>
   </si>
   <si>
     <t>Pędzelek</t>
   </si>
   <si>
-    <t>4,10</t>
+    <t>3,10</t>
+  </si>
+  <si>
+    <t>Długopis niebieski</t>
+  </si>
+  <si>
+    <t>2,50</t>
+  </si>
+  <si>
+    <t>Ołówek HB</t>
+  </si>
+  <si>
+    <t>1,10</t>
   </si>
   <si>
     <t>Gumka do mazania</t>
   </si>
   <si>
-    <t>1,40</t>
-  </si>
-  <si>
-    <t>Farby plakatowe 12 kolorów</t>
-  </si>
-  <si>
-    <t>21,40</t>
+    <t>Temperówka</t>
   </si>
   <si>
     <t>SUMA:</t>
@@ -220,31 +214,31 @@
     <t>Zeszyt</t>
   </si>
   <si>
-    <t>29,63</t>
+    <t>24,75</t>
   </si>
   <si>
     <t>Ołówek</t>
   </si>
   <si>
-    <t>29,22</t>
+    <t>26,17</t>
   </si>
   <si>
     <t>Długopis</t>
   </si>
   <si>
-    <t>20,45</t>
+    <t>12,27</t>
   </si>
   <si>
     <t>Linijka</t>
   </si>
   <si>
-    <t>28,92</t>
+    <t>6,87</t>
   </si>
   <si>
     <t>Gumka</t>
   </si>
   <si>
-    <t>19,02</t>
+    <t>24,12</t>
   </si>
   <si>
     <t>Razem Styczeń:</t>
@@ -253,19 +247,19 @@
     <t>Luty:</t>
   </si>
   <si>
-    <t>11,74</t>
-  </si>
-  <si>
-    <t>19,80</t>
-  </si>
-  <si>
-    <t>29,99</t>
-  </si>
-  <si>
-    <t>19,74</t>
-  </si>
-  <si>
-    <t>15,17</t>
+    <t>16,61</t>
+  </si>
+  <si>
+    <t>7,23</t>
+  </si>
+  <si>
+    <t>3,35</t>
+  </si>
+  <si>
+    <t>18,70</t>
+  </si>
+  <si>
+    <t>16,17</t>
   </si>
   <si>
     <t>Razem Luty:</t>
@@ -274,19 +268,19 @@
     <t>Marzec:</t>
   </si>
   <si>
-    <t>9,83</t>
-  </si>
-  <si>
-    <t>14,88</t>
-  </si>
-  <si>
-    <t>11,07</t>
-  </si>
-  <si>
-    <t>22,58</t>
-  </si>
-  <si>
-    <t>9,81</t>
+    <t>10,92</t>
+  </si>
+  <si>
+    <t>21,72</t>
+  </si>
+  <si>
+    <t>1,90</t>
+  </si>
+  <si>
+    <t>18,52</t>
+  </si>
+  <si>
+    <t>25,42</t>
   </si>
   <si>
     <t>Razem Marzec:</t>
@@ -340,40 +334,34 @@
     <t>Czy pasek?</t>
   </si>
   <si>
-    <t>Anna</t>
-  </si>
-  <si>
-    <t>Urbaniak</t>
-  </si>
-  <si>
-    <t>Amelia</t>
-  </si>
-  <si>
-    <t>Czarnecka</t>
-  </si>
-  <si>
-    <t>Hanna</t>
-  </si>
-  <si>
-    <t>Mikołaj</t>
+    <t>Zuzanna</t>
+  </si>
+  <si>
+    <t>Rogalska</t>
+  </si>
+  <si>
+    <t>Natalia</t>
+  </si>
+  <si>
+    <t>Olszewska</t>
+  </si>
+  <si>
+    <t>Szymon</t>
   </si>
   <si>
     <t>Mazur</t>
   </si>
   <si>
-    <t>Oliwia</t>
-  </si>
-  <si>
-    <t>Jaworska</t>
-  </si>
-  <si>
-    <t>Wojciech</t>
-  </si>
-  <si>
-    <t>Kwiatkowski</t>
-  </si>
-  <si>
-    <t>Górska</t>
+    <t>Maja</t>
+  </si>
+  <si>
+    <t>Piekarska</t>
+  </si>
+  <si>
+    <t>Jakub</t>
+  </si>
+  <si>
+    <t>Kowalczyk</t>
   </si>
   <si>
     <t>Średnia przedmiotu:</t>
@@ -409,112 +397,166 @@
     <t>Zarobki (zł)</t>
   </si>
   <si>
-    <t>Julia Borkowska</t>
-  </si>
-  <si>
-    <t>18.01.1977</t>
-  </si>
-  <si>
-    <t>9 203,00 zł</t>
-  </si>
-  <si>
-    <t>Jan Szymański</t>
-  </si>
-  <si>
-    <t>17.06.1993</t>
-  </si>
-  <si>
-    <t>5 938,00 zł</t>
-  </si>
-  <si>
-    <t>Antoni Lewandowski</t>
-  </si>
-  <si>
-    <t>04.04.2000</t>
-  </si>
-  <si>
-    <t>11 958,00 zł</t>
-  </si>
-  <si>
-    <t>Adam Kowalski</t>
-  </si>
-  <si>
-    <t>01.10.1977</t>
-  </si>
-  <si>
-    <t>9 397,00 zł</t>
+    <t>Anna Piekarska</t>
+  </si>
+  <si>
+    <t>20.08.1997</t>
+  </si>
+  <si>
+    <t>7 300,00 zł</t>
+  </si>
+  <si>
+    <t>Adam Lewandowski</t>
+  </si>
+  <si>
+    <t>19.06.2002</t>
+  </si>
+  <si>
+    <t>14 584,00 zł</t>
+  </si>
+  <si>
+    <t>Oliwia Kubiak</t>
+  </si>
+  <si>
+    <t>10.06.1989</t>
+  </si>
+  <si>
+    <t>11 154,00 zł</t>
+  </si>
+  <si>
+    <t>Adam Mazur</t>
+  </si>
+  <si>
+    <t>07.12.1989</t>
+  </si>
+  <si>
+    <t>7 355,00 zł</t>
+  </si>
+  <si>
+    <t>Adam Piotrowski</t>
+  </si>
+  <si>
+    <t>01.08.1990</t>
+  </si>
+  <si>
+    <t>13 688,00 zł</t>
+  </si>
+  <si>
+    <t>Antoni Grabowski</t>
+  </si>
+  <si>
+    <t>05.02.1981</t>
+  </si>
+  <si>
+    <t>4 423,00 zł</t>
+  </si>
+  <si>
+    <t>Zuzanna Urbaniak</t>
+  </si>
+  <si>
+    <t>09.12.2003</t>
+  </si>
+  <si>
+    <t>6 072,00 zł</t>
+  </si>
+  <si>
+    <t>Mikołaj Jankowski</t>
+  </si>
+  <si>
+    <t>18.06.2002</t>
+  </si>
+  <si>
+    <t>14 768,00 zł</t>
+  </si>
+  <si>
+    <t>Kacper Grabowski</t>
+  </si>
+  <si>
+    <t>04.11.1977</t>
+  </si>
+  <si>
+    <t>5 950,00 zł</t>
   </si>
   <si>
     <t>Kacper Kozłowski</t>
   </si>
   <si>
-    <t>11.12.1998</t>
-  </si>
-  <si>
-    <t>7 633,00 zł</t>
-  </si>
-  <si>
-    <t>Szymon Mazur</t>
-  </si>
-  <si>
-    <t>20.10.1998</t>
-  </si>
-  <si>
-    <t>12 483,00 zł</t>
-  </si>
-  <si>
-    <t>Julia Kubiak</t>
-  </si>
-  <si>
-    <t>08.04.1999</t>
-  </si>
-  <si>
-    <t>11 461,00 zł</t>
-  </si>
-  <si>
-    <t>Szymon Piotrowski</t>
-  </si>
-  <si>
-    <t>06.09.1999</t>
-  </si>
-  <si>
-    <t>10 625,00 zł</t>
-  </si>
-  <si>
-    <t>Jan Kowalczyk</t>
-  </si>
-  <si>
-    <t>12.12.1980</t>
-  </si>
-  <si>
-    <t>4 710,00 zł</t>
-  </si>
-  <si>
-    <t>Maja Wilk</t>
-  </si>
-  <si>
-    <t>10.02.2000</t>
-  </si>
-  <si>
-    <t>14 075,00 zł</t>
-  </si>
-  <si>
-    <t>Aleksander Wiśniewski</t>
-  </si>
-  <si>
-    <t>26.02.1986</t>
-  </si>
-  <si>
-    <t>3 578,00 zł</t>
-  </si>
-  <si>
-    <t>Amelia Rogalska</t>
-  </si>
-  <si>
-    <t>17.02.1985</t>
-  </si>
-  <si>
-    <t>11 978,00 zł</t>
+    <t>12.12.1998</t>
+  </si>
+  <si>
+    <t>9 995,00 zł</t>
+  </si>
+  <si>
+    <t>Lena Bednarska</t>
+  </si>
+  <si>
+    <t>11.12.1994</t>
+  </si>
+  <si>
+    <t>6 886,00 zł</t>
+  </si>
+  <si>
+    <t>Jakub Kowalski</t>
+  </si>
+  <si>
+    <t>16.01.1988</t>
+  </si>
+  <si>
+    <t>7 563,00 zł</t>
+  </si>
+  <si>
+    <t>Amelia Król</t>
+  </si>
+  <si>
+    <t>07.02.1983</t>
+  </si>
+  <si>
+    <t>2 597,00 zł</t>
+  </si>
+  <si>
+    <t>Natalia Wójcik</t>
+  </si>
+  <si>
+    <t>01.09.2003</t>
+  </si>
+  <si>
+    <t>11 965,00 zł</t>
+  </si>
+  <si>
+    <t>Natalia Piekarska</t>
+  </si>
+  <si>
+    <t>28.10.2000</t>
+  </si>
+  <si>
+    <t>4 232,00 zł</t>
+  </si>
+  <si>
+    <t>Mikołaj Mazur</t>
+  </si>
+  <si>
+    <t>27.04.1975</t>
+  </si>
+  <si>
+    <t>3 912,00 zł</t>
+  </si>
+  <si>
+    <t>Szymon Szymański</t>
+  </si>
+  <si>
+    <t>05.02.2004</t>
+  </si>
+  <si>
+    <t>8 825,00 zł</t>
+  </si>
+  <si>
+    <t>Lena Król</t>
+  </si>
+  <si>
+    <t>13.05.1994</t>
+  </si>
+  <si>
+    <t>11 642,00 zł</t>
   </si>
   <si>
     <t>OBLICZENIA:</t>
@@ -586,322 +628,307 @@
     <t>Województwo</t>
   </si>
   <si>
-    <t>Luty</t>
+    <t>kwiecień</t>
+  </si>
+  <si>
+    <t>Procesor i5</t>
+  </si>
+  <si>
+    <t>877,00 zł</t>
+  </si>
+  <si>
+    <t>1 210,00 zł</t>
+  </si>
+  <si>
+    <t>Paweł Kwiatkowski</t>
+  </si>
+  <si>
+    <t>lubuskie</t>
+  </si>
+  <si>
+    <t>maj</t>
+  </si>
+  <si>
+    <t>Kamera internetowa</t>
+  </si>
+  <si>
+    <t>1 130,00 zł</t>
+  </si>
+  <si>
+    <t>1 469,00 zł</t>
+  </si>
+  <si>
+    <t>Michał Jankowski</t>
+  </si>
+  <si>
+    <t>kujawsko-pomorskie</t>
+  </si>
+  <si>
+    <t>luty</t>
   </si>
   <si>
     <t>Smart TV 55"</t>
   </si>
   <si>
-    <t>1 253,00 zł</t>
-  </si>
-  <si>
-    <t>1 591,00 zł</t>
-  </si>
-  <si>
-    <t>Marcin Zieliński</t>
+    <t>1 387,00 zł</t>
+  </si>
+  <si>
+    <t>1 692,00 zł</t>
+  </si>
+  <si>
+    <t>Magdalena Szymańska</t>
+  </si>
+  <si>
+    <t>zachodniopomorskie</t>
+  </si>
+  <si>
+    <t>czerwiec</t>
+  </si>
+  <si>
+    <t>Odtwarzacz DVD</t>
+  </si>
+  <si>
+    <t>1 174,00 zł</t>
+  </si>
+  <si>
+    <t>1 503,00 zł</t>
+  </si>
+  <si>
+    <t>Anna Nowak</t>
+  </si>
+  <si>
+    <t>świętokrzyskie</t>
+  </si>
+  <si>
+    <t>Głośnik Bluetooth</t>
+  </si>
+  <si>
+    <t>1 485,00 zł</t>
+  </si>
+  <si>
+    <t>1 916,00 zł</t>
+  </si>
+  <si>
+    <t>Projektor multimedialny</t>
+  </si>
+  <si>
+    <t>1 463,00 zł</t>
+  </si>
+  <si>
+    <t>1 902,00 zł</t>
+  </si>
+  <si>
+    <t>mazowieckie</t>
+  </si>
+  <si>
+    <t>Konsola do gier</t>
+  </si>
+  <si>
+    <t>793,00 zł</t>
+  </si>
+  <si>
+    <t>999,00 zł</t>
+  </si>
+  <si>
+    <t>Barbara Kozłowska</t>
+  </si>
+  <si>
+    <t>Laptop Gaming i7</t>
+  </si>
+  <si>
+    <t>1 019,00 zł</t>
+  </si>
+  <si>
+    <t>1 304,00 zł</t>
+  </si>
+  <si>
+    <t>Jan Kowalski</t>
+  </si>
+  <si>
+    <t>łódzkie</t>
+  </si>
+  <si>
+    <t>1 008,00 zł</t>
+  </si>
+  <si>
+    <t>1 240,00 zł</t>
+  </si>
+  <si>
+    <t>opolskie</t>
+  </si>
+  <si>
+    <t>marzec</t>
+  </si>
+  <si>
+    <t>Router Wi-Fi 6</t>
+  </si>
+  <si>
+    <t>1 120,00 zł</t>
+  </si>
+  <si>
+    <t>1 254,00 zł</t>
+  </si>
+  <si>
+    <t>warmińsko-mazurskie</t>
+  </si>
+  <si>
+    <t>1 180,00 zł</t>
+  </si>
+  <si>
+    <t>1 605,00 zł</t>
+  </si>
+  <si>
+    <t>Katarzyna Mazur</t>
   </si>
   <si>
     <t>śląskie</t>
   </si>
   <si>
-    <t>Styczeń</t>
+    <t>Dysk SSD 1TB</t>
+  </si>
+  <si>
+    <t>1 261,00 zł</t>
+  </si>
+  <si>
+    <t>1 715,00 zł</t>
+  </si>
+  <si>
+    <t>Piotr Wiśniewski</t>
+  </si>
+  <si>
+    <t>Karta graficzna RTX</t>
+  </si>
+  <si>
+    <t>554,00 zł</t>
+  </si>
+  <si>
+    <t>626,00 zł</t>
+  </si>
+  <si>
+    <t>Maria Dąbrowska</t>
+  </si>
+  <si>
+    <t>wielkopolskie</t>
+  </si>
+  <si>
+    <t>styczeń</t>
+  </si>
+  <si>
+    <t>Drukarka laserowa</t>
+  </si>
+  <si>
+    <t>1 333,00 zł</t>
+  </si>
+  <si>
+    <t>1 600,00 zł</t>
+  </si>
+  <si>
+    <t>Krzysztof Lewandowski</t>
+  </si>
+  <si>
+    <t>Tablet 10"</t>
+  </si>
+  <si>
+    <t>1 308,00 zł</t>
+  </si>
+  <si>
+    <t>1 700,00 zł</t>
+  </si>
+  <si>
+    <t>1 042,00 zł</t>
+  </si>
+  <si>
+    <t>1 355,00 zł</t>
+  </si>
+  <si>
+    <t>podkarpackie</t>
+  </si>
+  <si>
+    <t>1 065,00 zł</t>
+  </si>
+  <si>
+    <t>1 427,00 zł</t>
+  </si>
+  <si>
+    <t>pomorskie</t>
+  </si>
+  <si>
+    <t>1 193,00 zł</t>
+  </si>
+  <si>
+    <t>1 587,00 zł</t>
+  </si>
+  <si>
+    <t>1 264,00 zł</t>
+  </si>
+  <si>
+    <t>1 732,00 zł</t>
+  </si>
+  <si>
+    <t>Agnieszka Wojciechowska</t>
+  </si>
+  <si>
+    <t>dolnośląskie</t>
+  </si>
+  <si>
+    <t>Powerbank 20000mAh</t>
+  </si>
+  <si>
+    <t>534,00 zł</t>
+  </si>
+  <si>
+    <t>721,00 zł</t>
+  </si>
+  <si>
+    <t>Ewa Kowalczyk</t>
+  </si>
+  <si>
+    <t>1 103,00 zł</t>
+  </si>
+  <si>
+    <t>1 423,00 zł</t>
+  </si>
+  <si>
+    <t>595,00 zł</t>
+  </si>
+  <si>
+    <t>702,00 zł</t>
+  </si>
+  <si>
+    <t>małopolskie</t>
+  </si>
+  <si>
+    <t>1 023,00 zł</t>
+  </si>
+  <si>
+    <t>1 176,00 zł</t>
+  </si>
+  <si>
+    <t>Smartphone 5G 128GB</t>
+  </si>
+  <si>
+    <t>1 054,00 zł</t>
+  </si>
+  <si>
+    <t>1 307,00 zł</t>
+  </si>
+  <si>
+    <t>897,00 zł</t>
+  </si>
+  <si>
+    <t>1 005,00 zł</t>
   </si>
   <si>
     <t>Obudowa gamingowa</t>
   </si>
   <si>
-    <t>859,00 zł</t>
-  </si>
-  <si>
-    <t>1 039,00 zł</t>
-  </si>
-  <si>
-    <t>Paweł Kwiatkowski</t>
-  </si>
-  <si>
-    <t>Marzec</t>
-  </si>
-  <si>
-    <t>Mikrofon studyjny</t>
-  </si>
-  <si>
-    <t>836,00 zł</t>
-  </si>
-  <si>
-    <t>986,00 zł</t>
-  </si>
-  <si>
-    <t>Krzysztof Lewandowski</t>
-  </si>
-  <si>
-    <t>pomorskie</t>
-  </si>
-  <si>
-    <t>Smartwatch</t>
-  </si>
-  <si>
-    <t>1 389,00 zł</t>
-  </si>
-  <si>
-    <t>1 833,00 zł</t>
-  </si>
-  <si>
-    <t>Piotr Wiśniewski</t>
-  </si>
-  <si>
-    <t>opolskie</t>
-  </si>
-  <si>
-    <t>Tablet 10"</t>
-  </si>
-  <si>
-    <t>1 286,00 zł</t>
-  </si>
-  <si>
-    <t>1 415,00 zł</t>
-  </si>
-  <si>
-    <t>Andrzej Woźniak</t>
-  </si>
-  <si>
-    <t>warmińsko-mazurskie</t>
-  </si>
-  <si>
-    <t>Płyta główna</t>
-  </si>
-  <si>
-    <t>1 379,00 zł</t>
-  </si>
-  <si>
-    <t>1 613,00 zł</t>
+    <t>849,00 zł</t>
+  </si>
+  <si>
+    <t>976,00 zł</t>
   </si>
   <si>
     <t>Monika Krawczyk</t>
-  </si>
-  <si>
-    <t>Powerbank 20000mAh</t>
-  </si>
-  <si>
-    <t>1 189,00 zł</t>
-  </si>
-  <si>
-    <t>1 355,00 zł</t>
-  </si>
-  <si>
-    <t>dolnośląskie</t>
-  </si>
-  <si>
-    <t>Projektor multimedialny</t>
-  </si>
-  <si>
-    <t>1 279,00 zł</t>
-  </si>
-  <si>
-    <t>1 548,00 zł</t>
-  </si>
-  <si>
-    <t>Tomasz Kamiński</t>
-  </si>
-  <si>
-    <t>wielkopolskie</t>
-  </si>
-  <si>
-    <t>1 422,00 zł</t>
-  </si>
-  <si>
-    <t>1 905,00 zł</t>
-  </si>
-  <si>
-    <t>Katarzyna Mazur</t>
-  </si>
-  <si>
-    <t>mazowieckie</t>
-  </si>
-  <si>
-    <t>Dysk SSD 1TB</t>
-  </si>
-  <si>
-    <t>1 100,00 zł</t>
-  </si>
-  <si>
-    <t>1 309,00 zł</t>
-  </si>
-  <si>
-    <t>Magdalena Szymańska</t>
-  </si>
-  <si>
-    <t>Mysz gamingowa</t>
-  </si>
-  <si>
-    <t>1 391,00 zł</t>
-  </si>
-  <si>
-    <t>1 739,00 zł</t>
-  </si>
-  <si>
-    <t>zachodniopomorskie</t>
-  </si>
-  <si>
-    <t>Głośnik Bluetooth</t>
-  </si>
-  <si>
-    <t>849,00 zł</t>
-  </si>
-  <si>
-    <t>1 044,00 zł</t>
-  </si>
-  <si>
-    <t>Jan Kowalski</t>
-  </si>
-  <si>
-    <t>1 090,00 zł</t>
-  </si>
-  <si>
-    <t>1 352,00 zł</t>
-  </si>
-  <si>
-    <t>1 035,00 zł</t>
-  </si>
-  <si>
-    <t>1 366,00 zł</t>
-  </si>
-  <si>
-    <t>Ewa Kowalczyk</t>
-  </si>
-  <si>
-    <t>920,00 zł</t>
-  </si>
-  <si>
-    <t>1 260,00 zł</t>
-  </si>
-  <si>
-    <t>Maria Dąbrowska</t>
-  </si>
-  <si>
-    <t>Smartphone 5G 128GB</t>
-  </si>
-  <si>
-    <t>512,00 zł</t>
-  </si>
-  <si>
-    <t>701,00 zł</t>
-  </si>
-  <si>
-    <t>599,00 zł</t>
-  </si>
-  <si>
-    <t>809,00 zł</t>
-  </si>
-  <si>
-    <t>lubelskie</t>
-  </si>
-  <si>
-    <t>1 457,00 zł</t>
-  </si>
-  <si>
-    <t>2 040,00 zł</t>
-  </si>
-  <si>
-    <t>lubuskie</t>
-  </si>
-  <si>
-    <t>1 238,00 zł</t>
-  </si>
-  <si>
-    <t>1 387,00 zł</t>
-  </si>
-  <si>
-    <t>kujawsko-pomorskie</t>
-  </si>
-  <si>
-    <t>Drukarka laserowa</t>
-  </si>
-  <si>
-    <t>1 152,00 zł</t>
-  </si>
-  <si>
-    <t>1 382,00 zł</t>
-  </si>
-  <si>
-    <t>świętokrzyskie</t>
-  </si>
-  <si>
-    <t>737,00 zł</t>
-  </si>
-  <si>
-    <t>929,00 zł</t>
-  </si>
-  <si>
-    <t>Michał Jankowski</t>
-  </si>
-  <si>
-    <t>podlaskie</t>
-  </si>
-  <si>
-    <t>Konsola do gier</t>
-  </si>
-  <si>
-    <t>1 049,00 zł</t>
-  </si>
-  <si>
-    <t>1 185,00 zł</t>
-  </si>
-  <si>
-    <t>1 115,00 zł</t>
-  </si>
-  <si>
-    <t>1 438,00 zł</t>
-  </si>
-  <si>
-    <t>932,00 zł</t>
-  </si>
-  <si>
-    <t>1 043,00 zł</t>
-  </si>
-  <si>
-    <t>1 272,00 zł</t>
-  </si>
-  <si>
-    <t>529,00 zł</t>
-  </si>
-  <si>
-    <t>698,00 zł</t>
-  </si>
-  <si>
-    <t>łódzkie</t>
-  </si>
-  <si>
-    <t>Pamięć RAM 16GB</t>
-  </si>
-  <si>
-    <t>1 356,00 zł</t>
-  </si>
-  <si>
-    <t>1 790,00 zł</t>
-  </si>
-  <si>
-    <t>Barbara Kozłowska</t>
-  </si>
-  <si>
-    <t>1 072,00 zł</t>
-  </si>
-  <si>
-    <t>1 222,00 zł</t>
-  </si>
-  <si>
-    <t>Agnieszka Wojciechowska</t>
-  </si>
-  <si>
-    <t>Odtwarzacz DVD</t>
-  </si>
-  <si>
-    <t>889,00 zł</t>
-  </si>
-  <si>
-    <t>1 245,00 zł</t>
-  </si>
-  <si>
-    <t>Anna Nowak</t>
   </si>
   <si>
     <t>Suma ceny sprzedaży:</t>
@@ -1458,19 +1485,19 @@
         <v>19</v>
       </c>
       <c r="B17" s="3">
+        <v>2</v>
+      </c>
+      <c r="C17" s="3">
+        <v>2</v>
+      </c>
+      <c r="D17" s="3">
+        <v>2</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2</v>
+      </c>
+      <c r="F17" s="3">
         <v>4</v>
-      </c>
-      <c r="C17" s="3">
-        <v>3</v>
-      </c>
-      <c r="D17" s="3">
-        <v>3</v>
-      </c>
-      <c r="E17" s="3">
-        <v>3</v>
-      </c>
-      <c r="F17" s="3">
-        <v>5</v>
       </c>
       <c r="G17" s="5"/>
     </row>
@@ -1479,13 +1506,13 @@
         <v>20</v>
       </c>
       <c r="B18" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C18" s="3">
         <v>3</v>
       </c>
       <c r="D18" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E18" s="3">
         <v>4</v>
@@ -1500,19 +1527,19 @@
         <v>21</v>
       </c>
       <c r="B19" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C19" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D19" s="3">
         <v>2</v>
       </c>
       <c r="E19" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F19" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G19" s="5"/>
     </row>
@@ -1527,10 +1554,10 @@
         <v>2</v>
       </c>
       <c r="D20" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E20" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F20" s="3">
         <v>6</v>
@@ -1542,19 +1569,19 @@
         <v>23</v>
       </c>
       <c r="B21" s="3">
+        <v>4</v>
+      </c>
+      <c r="C21" s="3">
+        <v>4</v>
+      </c>
+      <c r="D21" s="3">
+        <v>5</v>
+      </c>
+      <c r="E21" s="3">
+        <v>5</v>
+      </c>
+      <c r="F21" s="3">
         <v>6</v>
-      </c>
-      <c r="C21" s="3">
-        <v>2</v>
-      </c>
-      <c r="D21" s="3">
-        <v>6</v>
-      </c>
-      <c r="E21" s="3">
-        <v>6</v>
-      </c>
-      <c r="F21" s="3">
-        <v>2</v>
       </c>
       <c r="G21" s="5"/>
     </row>
@@ -1569,13 +1596,13 @@
         <v>3</v>
       </c>
       <c r="D22" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E22" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G22" s="5"/>
     </row>
@@ -1584,16 +1611,16 @@
         <v>25</v>
       </c>
       <c r="B23" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C23" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D23" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E23" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23" s="3">
         <v>5</v>
@@ -1605,13 +1632,13 @@
         <v>26</v>
       </c>
       <c r="B24" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C24" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D24" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E24" s="3">
         <v>3</v>
@@ -1629,16 +1656,16 @@
         <v>3</v>
       </c>
       <c r="C25" s="3">
+        <v>5</v>
+      </c>
+      <c r="D25" s="3">
         <v>4</v>
       </c>
-      <c r="D25" s="3">
-        <v>2</v>
-      </c>
       <c r="E25" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F25" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G25" s="5"/>
     </row>
@@ -1647,10 +1674,10 @@
         <v>28</v>
       </c>
       <c r="B26" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C26" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D26" s="3">
         <v>6</v>
@@ -1674,13 +1701,13 @@
         <v>2</v>
       </c>
       <c r="D27" s="3">
+        <v>4</v>
+      </c>
+      <c r="E27" s="3">
         <v>6</v>
       </c>
-      <c r="E27" s="3">
-        <v>3</v>
-      </c>
       <c r="F27" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G27" s="5"/>
     </row>
@@ -1689,16 +1716,16 @@
         <v>30</v>
       </c>
       <c r="B28" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C28" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D28" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E28" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F28" s="3">
         <v>5</v>
@@ -1823,7 +1850,7 @@
         <v>47</v>
       </c>
       <c r="D13" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E13" s="3"/>
     </row>
@@ -1853,7 +1880,7 @@
         <v>51</v>
       </c>
       <c r="D15" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E15" s="3"/>
     </row>
@@ -1880,10 +1907,10 @@
         <v>54</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D17" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E17" s="3"/>
     </row>
@@ -1892,13 +1919,13 @@
         <v>6</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D18" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E18" s="3"/>
     </row>
@@ -1907,7 +1934,7 @@
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E19" s="3"/>
     </row>
@@ -1942,7 +1969,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1967,27 +1994,27 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -2009,61 +2036,61 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C15" s="3">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="D15" s="3"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C16" s="3">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="D16" s="3"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C17" s="3">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="D17" s="3"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C18" s="3">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="D18" s="3"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C19" s="3">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="D19" s="3"/>
     </row>
@@ -2071,7 +2098,7 @@
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D20" s="8"/>
     </row>
@@ -2083,7 +2110,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -2105,61 +2132,61 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C24" s="3">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D24" s="3"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C25" s="3">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="D25" s="3"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C26" s="3">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D26" s="3"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C27" s="3">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D27" s="3"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C28" s="3">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="D28" s="3"/>
     </row>
@@ -2167,7 +2194,7 @@
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D29" s="8"/>
     </row>
@@ -2179,7 +2206,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -2201,73 +2228,73 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C33" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D33" s="3"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C34" s="3">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="D34" s="3"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C35" s="3">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D35" s="3"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C36" s="3">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="D36" s="3"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C37" s="3">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="D37" s="3"/>
     </row>
     <row r="38" spans="1:4">
       <c r="C38" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D38" s="6"/>
     </row>
     <row r="40" spans="1:4">
       <c r="C40" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D40" s="7"/>
     </row>
@@ -2289,10 +2316,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A20" sqref="A20:L20"/>
+      <selection activeCell="A18" sqref="A18:L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2313,53 +2340,53 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C11" s="10" t="s">
         <v>99</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>101</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>19</v>
@@ -2371,7 +2398,7 @@
         <v>22</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H11" s="10" t="s">
         <v>24</v>
@@ -2380,37 +2407,37 @@
         <v>20</v>
       </c>
       <c r="J11" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="L11" s="10" t="s">
         <v>103</v>
-      </c>
-      <c r="K11" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="L11" s="10" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D12" s="3">
+        <v>6</v>
+      </c>
+      <c r="E12" s="3">
+        <v>5</v>
+      </c>
+      <c r="F12" s="3">
+        <v>4</v>
+      </c>
+      <c r="G12" s="3">
         <v>2</v>
       </c>
-      <c r="E12" s="3">
-        <v>3</v>
-      </c>
-      <c r="F12" s="3">
-        <v>2</v>
-      </c>
-      <c r="G12" s="3">
-        <v>6</v>
-      </c>
       <c r="H12" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I12" s="3">
         <v>3</v>
@@ -2424,31 +2451,31 @@
     <row r="13" spans="1:12">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D13" s="3">
+        <v>6</v>
+      </c>
+      <c r="E13" s="3">
         <v>4</v>
       </c>
-      <c r="E13" s="3">
-        <v>6</v>
-      </c>
       <c r="F13" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G13" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H13" s="3">
+        <v>5</v>
+      </c>
+      <c r="I13" s="3">
         <v>4</v>
       </c>
-      <c r="I13" s="3">
+      <c r="J13" s="3">
         <v>5</v>
-      </c>
-      <c r="J13" s="3">
-        <v>3</v>
       </c>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
@@ -2456,31 +2483,31 @@
     <row r="14" spans="1:12">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>109</v>
       </c>
       <c r="D14" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E14" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F14" s="3">
         <v>3</v>
       </c>
       <c r="G14" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H14" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I14" s="3">
         <v>4</v>
       </c>
       <c r="J14" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
@@ -2488,31 +2515,31 @@
     <row r="15" spans="1:12">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>112</v>
-      </c>
       <c r="D15" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E15" s="3">
         <v>5</v>
       </c>
       <c r="F15" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G15" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H15" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I15" s="3">
         <v>6</v>
       </c>
       <c r="J15" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
@@ -2520,25 +2547,25 @@
     <row r="16" spans="1:12">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>114</v>
-      </c>
       <c r="D16" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E16" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16" s="3">
         <v>6</v>
       </c>
       <c r="G16" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H16" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I16" s="3">
         <v>6</v>
@@ -2550,106 +2577,42 @@
       <c r="L16" s="3"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3" t="s">
+      <c r="A17" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="D17" s="3">
-        <v>6</v>
-      </c>
-      <c r="E17" s="3">
-        <v>6</v>
-      </c>
-      <c r="F17" s="3">
-        <v>3</v>
-      </c>
-      <c r="G17" s="3">
-        <v>3</v>
-      </c>
-      <c r="H17" s="3">
-        <v>2</v>
-      </c>
-      <c r="I17" s="3">
-        <v>3</v>
-      </c>
-      <c r="J17" s="3">
-        <v>2</v>
-      </c>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="D18" s="3">
-        <v>3</v>
-      </c>
-      <c r="E18" s="3">
-        <v>3</v>
-      </c>
-      <c r="F18" s="3">
-        <v>4</v>
-      </c>
-      <c r="G18" s="3">
-        <v>6</v>
-      </c>
-      <c r="H18" s="3">
-        <v>2</v>
-      </c>
-      <c r="I18" s="3">
-        <v>6</v>
-      </c>
-      <c r="J18" s="3">
-        <v>2</v>
-      </c>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:K1"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="D20:L20"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="D18:L18"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2662,10 +2625,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A26" sqref="A26:B28"/>
+      <selection activeCell="A32" sqref="A32:B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2677,7 +2640,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="9" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2687,199 +2650,265 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="12" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="C23" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="C22" s="3" t="s">
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3" t="s">
         <v>164</v>
       </c>
+      <c r="B24" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="13" t="s">
-        <v>165</v>
+      <c r="A25" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>166</v>
-      </c>
-      <c r="B26" s="14" t="s">
-        <v>169</v>
+      <c r="A26" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" t="s">
-        <v>167</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>169</v>
+      <c r="A27" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>168</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>169</v>
+      <c r="A28" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="13" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>180</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>181</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>182</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -2897,10 +2926,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A48" sqref="A48:B52"/>
+      <selection activeCell="A45" sqref="A45:B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2916,7 +2945,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="9" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2926,75 +2955,75 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>177</v>
+        <v>191</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="12" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -3002,22 +3031,22 @@
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>190</v>
+        <v>204</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>192</v>
+        <v>206</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -3025,22 +3054,22 @@
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>195</v>
+        <v>209</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>197</v>
+        <v>211</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -3048,22 +3077,22 @@
         <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -3071,22 +3100,22 @@
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>194</v>
+        <v>220</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>205</v>
+        <v>221</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>206</v>
+        <v>222</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>207</v>
+        <v>223</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>208</v>
+        <v>224</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>209</v>
+        <v>225</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -3094,22 +3123,22 @@
         <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>188</v>
+        <v>220</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>210</v>
+        <v>226</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>211</v>
+        <v>227</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>212</v>
+        <v>228</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -3117,22 +3146,22 @@
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>218</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>204</v>
+        <v>232</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -3140,22 +3169,22 @@
         <v>7</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>219</v>
+        <v>233</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>192</v>
+        <v>236</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -3163,22 +3192,22 @@
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>223</v>
+        <v>237</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>226</v>
+        <v>240</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>227</v>
+        <v>241</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -3186,22 +3215,22 @@
         <v>9</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>194</v>
+        <v>220</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>189</v>
+        <v>221</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>229</v>
+        <v>243</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -3209,22 +3238,22 @@
         <v>10</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>188</v>
+        <v>245</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>204</v>
+        <v>249</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -3232,22 +3261,22 @@
         <v>11</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>236</v>
+        <v>209</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3255,22 +3284,22 @@
         <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>242</v>
+        <v>256</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>239</v>
+        <v>219</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3278,22 +3307,22 @@
         <v>13</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>199</v>
+        <v>245</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>215</v>
+        <v>258</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>244</v>
+        <v>259</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>239</v>
+        <v>262</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3301,22 +3330,22 @@
         <v>14</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>194</v>
+        <v>263</v>
       </c>
       <c r="C29" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="G29" s="3" t="s">
         <v>219</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3324,22 +3353,22 @@
         <v>15</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>188</v>
+        <v>220</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>223</v>
+        <v>268</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>249</v>
+        <v>269</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>251</v>
+        <v>212</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>239</v>
+        <v>213</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3347,22 +3376,22 @@
         <v>16</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>252</v>
+        <v>203</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>253</v>
+        <v>271</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>254</v>
+        <v>272</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>230</v>
+        <v>267</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>239</v>
+        <v>273</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3370,22 +3399,22 @@
         <v>17</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>200</v>
+        <v>264</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>255</v>
+        <v>274</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>256</v>
+        <v>275</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>192</v>
+        <v>218</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3393,22 +3422,22 @@
         <v>18</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>194</v>
+        <v>220</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>189</v>
+        <v>221</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>258</v>
+        <v>277</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>259</v>
+        <v>278</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3416,22 +3445,22 @@
         <v>19</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>261</v>
+        <v>279</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>262</v>
+        <v>280</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>218</v>
+        <v>281</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>263</v>
+        <v>282</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3439,22 +3468,22 @@
         <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>264</v>
+        <v>283</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>265</v>
+        <v>284</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>266</v>
+        <v>285</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>192</v>
+        <v>286</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3462,22 +3491,22 @@
         <v>21</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>195</v>
+        <v>229</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>268</v>
+        <v>287</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>269</v>
+        <v>288</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>270</v>
+        <v>212</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>271</v>
+        <v>249</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3485,22 +3514,22 @@
         <v>22</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>194</v>
+        <v>220</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>273</v>
+        <v>289</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>274</v>
+        <v>290</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>203</v>
+        <v>257</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>222</v>
+        <v>291</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3508,22 +3537,22 @@
         <v>23</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>252</v>
+        <v>268</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>276</v>
+        <v>293</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>203</v>
+        <v>240</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3531,22 +3560,22 @@
         <v>24</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>188</v>
+        <v>245</v>
       </c>
       <c r="C39" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="F39" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="D39" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>218</v>
-      </c>
       <c r="G39" s="3" t="s">
-        <v>231</v>
+        <v>282</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3554,22 +3583,22 @@
         <v>25</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>272</v>
+        <v>233</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>278</v>
+        <v>297</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>279</v>
+        <v>298</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>208</v>
+        <v>286</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3577,136 +3606,67 @@
         <v>26</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>215</v>
+        <v>299</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>281</v>
+        <v>301</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>192</v>
+        <v>302</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="3">
-        <v>27</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="3">
-        <v>28</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>193</v>
+        <v>276</v>
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="3">
-        <v>29</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>227</v>
+      <c r="A44" s="13" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" t="s">
+        <v>303</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" t="s">
+        <v>304</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="13" t="s">
-        <v>165</v>
+      <c r="A47" t="s">
+        <v>305</v>
+      </c>
+      <c r="B47" s="14" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="A50" t="s">
-        <v>296</v>
-      </c>
-      <c r="B50" s="14" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="A51" t="s">
-        <v>297</v>
-      </c>
-      <c r="B51" s="14" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="A52" t="s">
-        <v>298</v>
-      </c>
-      <c r="B52" s="14" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>

--- a/excel/collective/zestawy_dla_uczniow/zestaw_036.xlsx
+++ b/excel/collective/zestawy_dla_uczniow/zestaw_036.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="213">
   <si>
     <t>ZESTAW ZADAŃ NR 36 - CZĘŚĆ 1</t>
   </si>
@@ -118,21 +118,6 @@
     <t>ŚREDNIA UCZNIA:</t>
   </si>
   <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(B17:B28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(C17:C28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(D17:D28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(E17:E28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(F17:F28);".";",")</t>
-  </si>
-  <si>
     <t>ZESTAW ZADAŃ NR 36 - CZĘŚĆ 2: ZAKUPY</t>
   </si>
   <si>
@@ -163,27 +148,15 @@
     <t>Farby plakatowe 12 kolorów</t>
   </si>
   <si>
-    <t>22,20</t>
-  </si>
-  <si>
     <t>Pędzelek</t>
   </si>
   <si>
-    <t>3,10</t>
-  </si>
-  <si>
     <t>Długopis niebieski</t>
   </si>
   <si>
-    <t>2,50</t>
-  </si>
-  <si>
     <t>Ołówek HB</t>
   </si>
   <si>
-    <t>1,10</t>
-  </si>
-  <si>
     <t>Gumka do mazania</t>
   </si>
   <si>
@@ -214,75 +187,30 @@
     <t>Zeszyt</t>
   </si>
   <si>
-    <t>24,75</t>
-  </si>
-  <si>
     <t>Ołówek</t>
   </si>
   <si>
-    <t>26,17</t>
-  </si>
-  <si>
     <t>Długopis</t>
   </si>
   <si>
-    <t>12,27</t>
-  </si>
-  <si>
     <t>Linijka</t>
   </si>
   <si>
-    <t>6,87</t>
-  </si>
-  <si>
     <t>Gumka</t>
   </si>
   <si>
-    <t>24,12</t>
-  </si>
-  <si>
     <t>Razem Styczeń:</t>
   </si>
   <si>
     <t>Luty:</t>
   </si>
   <si>
-    <t>16,61</t>
-  </si>
-  <si>
-    <t>7,23</t>
-  </si>
-  <si>
-    <t>3,35</t>
-  </si>
-  <si>
-    <t>18,70</t>
-  </si>
-  <si>
-    <t>16,17</t>
-  </si>
-  <si>
     <t>Razem Luty:</t>
   </si>
   <si>
     <t>Marzec:</t>
   </si>
   <si>
-    <t>10,92</t>
-  </si>
-  <si>
-    <t>21,72</t>
-  </si>
-  <si>
-    <t>1,90</t>
-  </si>
-  <si>
-    <t>18,52</t>
-  </si>
-  <si>
-    <t>25,42</t>
-  </si>
-  <si>
     <t>Razem Marzec:</t>
   </si>
   <si>
@@ -301,7 +229,7 @@
     <t>2. Uzupełnij kolumnę LP (kolejne numery).</t>
   </si>
   <si>
-    <t>3. Oblicz średnią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
+    <t>3. Oblicz średią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
   </si>
   <si>
     <t>4. Jeżeli średnia ucznia jest większa lub równa 4,5, wpisz "TAK", w przeciwnym razie "NIE" w kolumnie "Czy pasek?".</t>
@@ -403,162 +331,108 @@
     <t>20.08.1997</t>
   </si>
   <si>
-    <t>7 300,00 zł</t>
-  </si>
-  <si>
     <t>Adam Lewandowski</t>
   </si>
   <si>
     <t>19.06.2002</t>
   </si>
   <si>
-    <t>14 584,00 zł</t>
-  </si>
-  <si>
     <t>Oliwia Kubiak</t>
   </si>
   <si>
     <t>10.06.1989</t>
   </si>
   <si>
-    <t>11 154,00 zł</t>
-  </si>
-  <si>
     <t>Adam Mazur</t>
   </si>
   <si>
     <t>07.12.1989</t>
   </si>
   <si>
-    <t>7 355,00 zł</t>
-  </si>
-  <si>
     <t>Adam Piotrowski</t>
   </si>
   <si>
     <t>01.08.1990</t>
   </si>
   <si>
-    <t>13 688,00 zł</t>
-  </si>
-  <si>
     <t>Antoni Grabowski</t>
   </si>
   <si>
     <t>05.02.1981</t>
   </si>
   <si>
-    <t>4 423,00 zł</t>
-  </si>
-  <si>
     <t>Zuzanna Urbaniak</t>
   </si>
   <si>
     <t>09.12.2003</t>
   </si>
   <si>
-    <t>6 072,00 zł</t>
-  </si>
-  <si>
     <t>Mikołaj Jankowski</t>
   </si>
   <si>
     <t>18.06.2002</t>
   </si>
   <si>
-    <t>14 768,00 zł</t>
-  </si>
-  <si>
     <t>Kacper Grabowski</t>
   </si>
   <si>
     <t>04.11.1977</t>
   </si>
   <si>
-    <t>5 950,00 zł</t>
-  </si>
-  <si>
     <t>Kacper Kozłowski</t>
   </si>
   <si>
     <t>12.12.1998</t>
   </si>
   <si>
-    <t>9 995,00 zł</t>
-  </si>
-  <si>
     <t>Lena Bednarska</t>
   </si>
   <si>
     <t>11.12.1994</t>
   </si>
   <si>
-    <t>6 886,00 zł</t>
-  </si>
-  <si>
     <t>Jakub Kowalski</t>
   </si>
   <si>
     <t>16.01.1988</t>
   </si>
   <si>
-    <t>7 563,00 zł</t>
-  </si>
-  <si>
     <t>Amelia Król</t>
   </si>
   <si>
     <t>07.02.1983</t>
   </si>
   <si>
-    <t>2 597,00 zł</t>
-  </si>
-  <si>
     <t>Natalia Wójcik</t>
   </si>
   <si>
     <t>01.09.2003</t>
   </si>
   <si>
-    <t>11 965,00 zł</t>
-  </si>
-  <si>
     <t>Natalia Piekarska</t>
   </si>
   <si>
     <t>28.10.2000</t>
   </si>
   <si>
-    <t>4 232,00 zł</t>
-  </si>
-  <si>
     <t>Mikołaj Mazur</t>
   </si>
   <si>
     <t>27.04.1975</t>
   </si>
   <si>
-    <t>3 912,00 zł</t>
-  </si>
-  <si>
     <t>Szymon Szymański</t>
   </si>
   <si>
     <t>05.02.2004</t>
   </si>
   <si>
-    <t>8 825,00 zł</t>
-  </si>
-  <si>
     <t>Lena Król</t>
   </si>
   <si>
     <t>13.05.1994</t>
   </si>
   <si>
-    <t>11 642,00 zł</t>
-  </si>
-  <si>
     <t>OBLICZENIA:</t>
   </si>
   <si>
@@ -571,9 +445,6 @@
     <t>Najmniejsze zarobki:</t>
   </si>
   <si>
-    <t>=...</t>
-  </si>
-  <si>
     <t>ZADANIE 6 - ANALIZA SPRZEDAŻY</t>
   </si>
   <si>
@@ -634,12 +505,6 @@
     <t>Procesor i5</t>
   </si>
   <si>
-    <t>877,00 zł</t>
-  </si>
-  <si>
-    <t>1 210,00 zł</t>
-  </si>
-  <si>
     <t>Paweł Kwiatkowski</t>
   </si>
   <si>
@@ -652,12 +517,6 @@
     <t>Kamera internetowa</t>
   </si>
   <si>
-    <t>1 130,00 zł</t>
-  </si>
-  <si>
-    <t>1 469,00 zł</t>
-  </si>
-  <si>
     <t>Michał Jankowski</t>
   </si>
   <si>
@@ -670,12 +529,6 @@
     <t>Smart TV 55"</t>
   </si>
   <si>
-    <t>1 387,00 zł</t>
-  </si>
-  <si>
-    <t>1 692,00 zł</t>
-  </si>
-  <si>
     <t>Magdalena Szymańska</t>
   </si>
   <si>
@@ -688,12 +541,6 @@
     <t>Odtwarzacz DVD</t>
   </si>
   <si>
-    <t>1 174,00 zł</t>
-  </si>
-  <si>
-    <t>1 503,00 zł</t>
-  </si>
-  <si>
     <t>Anna Nowak</t>
   </si>
   <si>
@@ -703,57 +550,27 @@
     <t>Głośnik Bluetooth</t>
   </si>
   <si>
-    <t>1 485,00 zł</t>
-  </si>
-  <si>
-    <t>1 916,00 zł</t>
-  </si>
-  <si>
     <t>Projektor multimedialny</t>
   </si>
   <si>
-    <t>1 463,00 zł</t>
-  </si>
-  <si>
-    <t>1 902,00 zł</t>
-  </si>
-  <si>
     <t>mazowieckie</t>
   </si>
   <si>
     <t>Konsola do gier</t>
   </si>
   <si>
-    <t>793,00 zł</t>
-  </si>
-  <si>
-    <t>999,00 zł</t>
-  </si>
-  <si>
     <t>Barbara Kozłowska</t>
   </si>
   <si>
     <t>Laptop Gaming i7</t>
   </si>
   <si>
-    <t>1 019,00 zł</t>
-  </si>
-  <si>
-    <t>1 304,00 zł</t>
-  </si>
-  <si>
     <t>Jan Kowalski</t>
   </si>
   <si>
     <t>łódzkie</t>
   </si>
   <si>
-    <t>1 008,00 zł</t>
-  </si>
-  <si>
-    <t>1 240,00 zł</t>
-  </si>
-  <si>
     <t>opolskie</t>
   </si>
   <si>
@@ -763,21 +580,9 @@
     <t>Router Wi-Fi 6</t>
   </si>
   <si>
-    <t>1 120,00 zł</t>
-  </si>
-  <si>
-    <t>1 254,00 zł</t>
-  </si>
-  <si>
     <t>warmińsko-mazurskie</t>
   </si>
   <si>
-    <t>1 180,00 zł</t>
-  </si>
-  <si>
-    <t>1 605,00 zł</t>
-  </si>
-  <si>
     <t>Katarzyna Mazur</t>
   </si>
   <si>
@@ -787,24 +592,12 @@
     <t>Dysk SSD 1TB</t>
   </si>
   <si>
-    <t>1 261,00 zł</t>
-  </si>
-  <si>
-    <t>1 715,00 zł</t>
-  </si>
-  <si>
     <t>Piotr Wiśniewski</t>
   </si>
   <si>
     <t>Karta graficzna RTX</t>
   </si>
   <si>
-    <t>554,00 zł</t>
-  </si>
-  <si>
-    <t>626,00 zł</t>
-  </si>
-  <si>
     <t>Maria Dąbrowska</t>
   </si>
   <si>
@@ -817,54 +610,18 @@
     <t>Drukarka laserowa</t>
   </si>
   <si>
-    <t>1 333,00 zł</t>
-  </si>
-  <si>
-    <t>1 600,00 zł</t>
-  </si>
-  <si>
     <t>Krzysztof Lewandowski</t>
   </si>
   <si>
     <t>Tablet 10"</t>
   </si>
   <si>
-    <t>1 308,00 zł</t>
-  </si>
-  <si>
-    <t>1 700,00 zł</t>
-  </si>
-  <si>
-    <t>1 042,00 zł</t>
-  </si>
-  <si>
-    <t>1 355,00 zł</t>
-  </si>
-  <si>
     <t>podkarpackie</t>
   </si>
   <si>
-    <t>1 065,00 zł</t>
-  </si>
-  <si>
-    <t>1 427,00 zł</t>
-  </si>
-  <si>
     <t>pomorskie</t>
   </si>
   <si>
-    <t>1 193,00 zł</t>
-  </si>
-  <si>
-    <t>1 587,00 zł</t>
-  </si>
-  <si>
-    <t>1 264,00 zł</t>
-  </si>
-  <si>
-    <t>1 732,00 zł</t>
-  </si>
-  <si>
     <t>Agnieszka Wojciechowska</t>
   </si>
   <si>
@@ -874,58 +631,16 @@
     <t>Powerbank 20000mAh</t>
   </si>
   <si>
-    <t>534,00 zł</t>
-  </si>
-  <si>
-    <t>721,00 zł</t>
-  </si>
-  <si>
     <t>Ewa Kowalczyk</t>
   </si>
   <si>
-    <t>1 103,00 zł</t>
-  </si>
-  <si>
-    <t>1 423,00 zł</t>
-  </si>
-  <si>
-    <t>595,00 zł</t>
-  </si>
-  <si>
-    <t>702,00 zł</t>
-  </si>
-  <si>
     <t>małopolskie</t>
   </si>
   <si>
-    <t>1 023,00 zł</t>
-  </si>
-  <si>
-    <t>1 176,00 zł</t>
-  </si>
-  <si>
     <t>Smartphone 5G 128GB</t>
   </si>
   <si>
-    <t>1 054,00 zł</t>
-  </si>
-  <si>
-    <t>1 307,00 zł</t>
-  </si>
-  <si>
-    <t>897,00 zł</t>
-  </si>
-  <si>
-    <t>1 005,00 zł</t>
-  </si>
-  <si>
     <t>Obudowa gamingowa</t>
-  </si>
-  <si>
-    <t>849,00 zł</t>
-  </si>
-  <si>
-    <t>976,00 zł</t>
   </si>
   <si>
     <t>Monika Krawczyk</t>
@@ -950,7 +665,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.00&quot; zł&quot;"/>
+  </numFmts>
   <fonts count="5">
     <font>
       <b val="0"/>
@@ -1007,14 +724,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9EAD3"/>
-        <bgColor rgb="FFD9EAD3"/>
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
-        <bgColor rgb="FFFFF2CC"/>
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor rgb="FFD9EAD3"/>
       </patternFill>
     </fill>
     <fill>
@@ -1025,8 +742,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
-        <bgColor rgb="FF000000"/>
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
   </fills>
@@ -1057,30 +774,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" quotePrefix="1" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="5" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="5" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="0" quotePrefix="1" numFmtId="0" fillId="5" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1383,7 +1101,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="A16" sqref="A16:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1458,25 +1176,25 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1499,7 +1217,7 @@
       <c r="F17" s="3">
         <v>4</v>
       </c>
-      <c r="G17" s="5"/>
+      <c r="G17" s="4"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="3" t="s">
@@ -1520,7 +1238,7 @@
       <c r="F18" s="3">
         <v>3</v>
       </c>
-      <c r="G18" s="5"/>
+      <c r="G18" s="4"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="3" t="s">
@@ -1541,7 +1259,7 @@
       <c r="F19" s="3">
         <v>6</v>
       </c>
-      <c r="G19" s="5"/>
+      <c r="G19" s="4"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="3" t="s">
@@ -1562,7 +1280,7 @@
       <c r="F20" s="3">
         <v>6</v>
       </c>
-      <c r="G20" s="5"/>
+      <c r="G20" s="4"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="3" t="s">
@@ -1583,7 +1301,7 @@
       <c r="F21" s="3">
         <v>6</v>
       </c>
-      <c r="G21" s="5"/>
+      <c r="G21" s="4"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="3" t="s">
@@ -1604,7 +1322,7 @@
       <c r="F22" s="3">
         <v>4</v>
       </c>
-      <c r="G22" s="5"/>
+      <c r="G22" s="4"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="3" t="s">
@@ -1625,7 +1343,7 @@
       <c r="F23" s="3">
         <v>5</v>
       </c>
-      <c r="G23" s="5"/>
+      <c r="G23" s="4"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="3" t="s">
@@ -1646,7 +1364,7 @@
       <c r="F24" s="3">
         <v>4</v>
       </c>
-      <c r="G24" s="5"/>
+      <c r="G24" s="4"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="3" t="s">
@@ -1667,7 +1385,7 @@
       <c r="F25" s="3">
         <v>5</v>
       </c>
-      <c r="G25" s="5"/>
+      <c r="G25" s="4"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="3" t="s">
@@ -1688,7 +1406,7 @@
       <c r="F26" s="3">
         <v>6</v>
       </c>
-      <c r="G26" s="5"/>
+      <c r="G26" s="4"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="3" t="s">
@@ -1709,7 +1427,7 @@
       <c r="F27" s="3">
         <v>2</v>
       </c>
-      <c r="G27" s="5"/>
+      <c r="G27" s="4"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="3" t="s">
@@ -1730,27 +1448,17 @@
       <c r="F28" s="3">
         <v>5</v>
       </c>
-      <c r="G28" s="5"/>
+      <c r="G28" s="4"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>36</v>
-      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1784,7 +1492,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1804,7 +1512,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1814,29 +1522,29 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1844,99 +1552,99 @@
         <v>1</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>47</v>
+        <v>41</v>
+      </c>
+      <c r="C13" s="7">
+        <v>22.2</v>
       </c>
       <c r="D13" s="3">
         <v>1</v>
       </c>
-      <c r="E13" s="3"/>
+      <c r="E13" s="8"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3">
         <v>2</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>49</v>
+        <v>42</v>
+      </c>
+      <c r="C14" s="7">
+        <v>3.1</v>
       </c>
       <c r="D14" s="3">
         <v>10</v>
       </c>
-      <c r="E14" s="3"/>
+      <c r="E14" s="8"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3">
         <v>3</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>51</v>
+        <v>43</v>
+      </c>
+      <c r="C15" s="7">
+        <v>2.5</v>
       </c>
       <c r="D15" s="3">
         <v>5</v>
       </c>
-      <c r="E15" s="3"/>
+      <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3">
         <v>4</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>53</v>
+        <v>44</v>
+      </c>
+      <c r="C16" s="7">
+        <v>1.1</v>
       </c>
       <c r="D16" s="3">
         <v>5</v>
       </c>
-      <c r="E16" s="3"/>
+      <c r="E16" s="8"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3">
         <v>5</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>53</v>
+        <v>45</v>
+      </c>
+      <c r="C17" s="7">
+        <v>1.1</v>
       </c>
       <c r="D17" s="3">
         <v>1</v>
       </c>
-      <c r="E17" s="3"/>
+      <c r="E17" s="8"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3">
         <v>6</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
+      </c>
+      <c r="C18" s="7">
+        <v>2.5</v>
       </c>
       <c r="D18" s="3">
         <v>8</v>
       </c>
-      <c r="E18" s="3"/>
+      <c r="E18" s="8"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E19" s="3"/>
+        <v>47</v>
+      </c>
+      <c r="E19" s="8"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1969,7 +1677,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1994,113 +1702,113 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="8" t="s">
-        <v>62</v>
+      <c r="A13" s="13" t="s">
+        <v>53</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>45</v>
+      <c r="A14" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>64</v>
+        <v>54</v>
+      </c>
+      <c r="B15" s="7">
+        <v>24.75</v>
       </c>
       <c r="C15" s="3">
         <v>12</v>
       </c>
-      <c r="D15" s="3"/>
+      <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>66</v>
+        <v>55</v>
+      </c>
+      <c r="B16" s="7">
+        <v>26.17</v>
       </c>
       <c r="C16" s="3">
         <v>20</v>
       </c>
-      <c r="D16" s="3"/>
+      <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>68</v>
+        <v>56</v>
+      </c>
+      <c r="B17" s="7">
+        <v>12.27</v>
       </c>
       <c r="C17" s="3">
         <v>23</v>
       </c>
-      <c r="D17" s="3"/>
+      <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>70</v>
+        <v>57</v>
+      </c>
+      <c r="B18" s="7">
+        <v>6.87</v>
       </c>
       <c r="C18" s="3">
         <v>15</v>
       </c>
-      <c r="D18" s="3"/>
+      <c r="D18" s="8"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>72</v>
+        <v>58</v>
+      </c>
+      <c r="B19" s="7">
+        <v>24.12</v>
       </c>
       <c r="C19" s="3">
         <v>49</v>
       </c>
-      <c r="D19" s="3"/>
+      <c r="D19" s="8"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="D20" s="8"/>
+      <c r="C20" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="14"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3"/>
@@ -2109,94 +1817,94 @@
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="8" t="s">
-        <v>74</v>
+      <c r="A22" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>45</v>
+      <c r="A23" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>75</v>
+        <v>54</v>
+      </c>
+      <c r="B24" s="7">
+        <v>16.61</v>
       </c>
       <c r="C24" s="3">
         <v>25</v>
       </c>
-      <c r="D24" s="3"/>
+      <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>76</v>
+        <v>55</v>
+      </c>
+      <c r="B25" s="7">
+        <v>7.23</v>
       </c>
       <c r="C25" s="3">
         <v>40</v>
       </c>
-      <c r="D25" s="3"/>
+      <c r="D25" s="8"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>77</v>
+        <v>56</v>
+      </c>
+      <c r="B26" s="7">
+        <v>3.35</v>
       </c>
       <c r="C26" s="3">
         <v>38</v>
       </c>
-      <c r="D26" s="3"/>
+      <c r="D26" s="8"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>78</v>
+        <v>57</v>
+      </c>
+      <c r="B27" s="7">
+        <v>18.7</v>
       </c>
       <c r="C27" s="3">
         <v>24</v>
       </c>
-      <c r="D27" s="3"/>
+      <c r="D27" s="8"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>79</v>
+        <v>58</v>
+      </c>
+      <c r="B28" s="7">
+        <v>16.17</v>
       </c>
       <c r="C28" s="3">
         <v>5</v>
       </c>
-      <c r="D28" s="3"/>
+      <c r="D28" s="8"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="D29" s="8"/>
+      <c r="C29" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" s="14"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="3"/>
@@ -2205,98 +1913,98 @@
       <c r="D30" s="3"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="8" t="s">
-        <v>81</v>
+      <c r="A31" s="13" t="s">
+        <v>62</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>45</v>
+      <c r="A32" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>82</v>
+        <v>54</v>
+      </c>
+      <c r="B33" s="7">
+        <v>10.92</v>
       </c>
       <c r="C33" s="3">
         <v>18</v>
       </c>
-      <c r="D33" s="3"/>
+      <c r="D33" s="8"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>83</v>
+        <v>55</v>
+      </c>
+      <c r="B34" s="7">
+        <v>21.72</v>
       </c>
       <c r="C34" s="3">
         <v>36</v>
       </c>
-      <c r="D34" s="3"/>
+      <c r="D34" s="8"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>84</v>
+        <v>56</v>
+      </c>
+      <c r="B35" s="7">
+        <v>1.9</v>
       </c>
       <c r="C35" s="3">
         <v>21</v>
       </c>
-      <c r="D35" s="3"/>
+      <c r="D35" s="8"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>85</v>
+        <v>57</v>
+      </c>
+      <c r="B36" s="7">
+        <v>18.52</v>
       </c>
       <c r="C36" s="3">
         <v>46</v>
       </c>
-      <c r="D36" s="3"/>
+      <c r="D36" s="8"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>86</v>
+        <v>58</v>
+      </c>
+      <c r="B37" s="7">
+        <v>25.42</v>
       </c>
       <c r="C37" s="3">
         <v>27</v>
       </c>
-      <c r="D37" s="3"/>
+      <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="C38" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="D38" s="6"/>
+      <c r="C38" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D38" s="11"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="C40" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="D40" s="7"/>
+      <c r="C40" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D40" s="12"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2319,7 +2027,7 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A18" sqref="A18:L18"/>
+      <selection activeCell="A11" sqref="A11:L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2339,90 +2047,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="9" t="s">
-        <v>89</v>
+      <c r="A1" s="15" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="D11" s="10" t="s">
+      <c r="A11" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="H11" s="10" t="s">
+      <c r="G11" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="H11" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="I11" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="K11" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="L11" s="10" t="s">
-        <v>103</v>
+      <c r="J11" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="K11" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="L11" s="16" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="3"/>
+      <c r="A12" s="4"/>
       <c r="B12" s="3" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="D12" s="3">
         <v>6</v>
@@ -2445,16 +2153,16 @@
       <c r="J12" s="3">
         <v>4</v>
       </c>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="3"/>
+      <c r="A13" s="4"/>
       <c r="B13" s="3" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="D13" s="3">
         <v>6</v>
@@ -2477,16 +2185,16 @@
       <c r="J13" s="3">
         <v>5</v>
       </c>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="3"/>
+      <c r="A14" s="4"/>
       <c r="B14" s="3" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="D14" s="3">
         <v>3</v>
@@ -2509,16 +2217,16 @@
       <c r="J14" s="3">
         <v>6</v>
       </c>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="3"/>
+      <c r="A15" s="4"/>
       <c r="B15" s="3" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="D15" s="3">
         <v>2</v>
@@ -2541,16 +2249,16 @@
       <c r="J15" s="3">
         <v>5</v>
       </c>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="3"/>
+      <c r="A16" s="4"/>
       <c r="B16" s="3" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="D16" s="3">
         <v>6</v>
@@ -2573,40 +2281,40 @@
       <c r="J16" s="3">
         <v>5</v>
       </c>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
+      <c r="A17" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
+      <c r="A18" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2639,277 +2347,271 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="9" t="s">
-        <v>116</v>
+      <c r="A1" s="15" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>124</v>
+      <c r="A10" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>127</v>
+        <v>102</v>
+      </c>
+      <c r="C11" s="7">
+        <v>7300</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>130</v>
+        <v>104</v>
+      </c>
+      <c r="C12" s="7">
+        <v>14584</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>133</v>
+        <v>106</v>
+      </c>
+      <c r="C13" s="7">
+        <v>11154</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>136</v>
+        <v>108</v>
+      </c>
+      <c r="C14" s="7">
+        <v>7355</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>137</v>
+        <v>109</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>139</v>
+        <v>110</v>
+      </c>
+      <c r="C15" s="7">
+        <v>13688</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>140</v>
+        <v>111</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>142</v>
+        <v>112</v>
+      </c>
+      <c r="C16" s="7">
+        <v>4423</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>143</v>
+        <v>113</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>145</v>
+        <v>114</v>
+      </c>
+      <c r="C17" s="7">
+        <v>6072</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>146</v>
+        <v>115</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>148</v>
+        <v>116</v>
+      </c>
+      <c r="C18" s="7">
+        <v>14768</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>149</v>
+        <v>117</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>151</v>
+        <v>118</v>
+      </c>
+      <c r="C19" s="7">
+        <v>5950</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>152</v>
+        <v>119</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>154</v>
+        <v>120</v>
+      </c>
+      <c r="C20" s="7">
+        <v>9995</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>155</v>
+        <v>121</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>157</v>
+        <v>122</v>
+      </c>
+      <c r="C21" s="7">
+        <v>6886</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>158</v>
+        <v>123</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>160</v>
+        <v>124</v>
+      </c>
+      <c r="C22" s="7">
+        <v>7563</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>161</v>
+        <v>125</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>163</v>
+        <v>126</v>
+      </c>
+      <c r="C23" s="7">
+        <v>2597</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="3" t="s">
-        <v>164</v>
+        <v>127</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>166</v>
+        <v>128</v>
+      </c>
+      <c r="C24" s="7">
+        <v>11965</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
-        <v>167</v>
+        <v>129</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>169</v>
+        <v>130</v>
+      </c>
+      <c r="C25" s="7">
+        <v>4232</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>170</v>
+        <v>131</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>172</v>
+        <v>132</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3912</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="3" t="s">
-        <v>173</v>
+        <v>133</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>175</v>
+        <v>134</v>
+      </c>
+      <c r="C27" s="7">
+        <v>8825</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="3" t="s">
-        <v>176</v>
+        <v>135</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>178</v>
+        <v>136</v>
+      </c>
+      <c r="C28" s="7">
+        <v>11642</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="13" t="s">
-        <v>179</v>
+      <c r="A31" s="17" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>180</v>
-      </c>
-      <c r="B32" s="14" t="s">
-        <v>183</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="B32" s="2"/>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>181</v>
-      </c>
-      <c r="B33" s="14" t="s">
-        <v>183</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="B33" s="6"/>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>182</v>
-      </c>
-      <c r="B34" s="14" t="s">
-        <v>183</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="B34" s="6"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2944,86 +2646,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="9" t="s">
-        <v>184</v>
+      <c r="A1" s="15" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>185</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>186</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>187</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>188</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>189</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>190</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>191</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>192</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>193</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>194</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>201</v>
+      <c r="A15" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -3031,22 +2733,22 @@
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>202</v>
+        <v>159</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>205</v>
+        <v>160</v>
+      </c>
+      <c r="D16" s="7">
+        <v>877</v>
+      </c>
+      <c r="E16" s="7">
+        <v>1210</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>206</v>
+        <v>161</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>207</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -3054,22 +2756,22 @@
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>208</v>
+        <v>163</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>211</v>
+        <v>164</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1130</v>
+      </c>
+      <c r="E17" s="7">
+        <v>1469</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>212</v>
+        <v>165</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>213</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -3077,22 +2779,22 @@
         <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>214</v>
+        <v>167</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>217</v>
+        <v>168</v>
+      </c>
+      <c r="D18" s="7">
+        <v>1387</v>
+      </c>
+      <c r="E18" s="7">
+        <v>1692</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>218</v>
+        <v>169</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>219</v>
+        <v>170</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -3100,22 +2802,22 @@
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>220</v>
+        <v>171</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>223</v>
+        <v>172</v>
+      </c>
+      <c r="D19" s="7">
+        <v>1174</v>
+      </c>
+      <c r="E19" s="7">
+        <v>1503</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>224</v>
+        <v>173</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>225</v>
+        <v>174</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -3123,22 +2825,22 @@
         <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>220</v>
+        <v>171</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>228</v>
+        <v>175</v>
+      </c>
+      <c r="D20" s="7">
+        <v>1485</v>
+      </c>
+      <c r="E20" s="7">
+        <v>1916</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>218</v>
+        <v>169</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>219</v>
+        <v>170</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -3146,22 +2848,22 @@
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>208</v>
+        <v>163</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>231</v>
+        <v>176</v>
+      </c>
+      <c r="D21" s="7">
+        <v>1463</v>
+      </c>
+      <c r="E21" s="7">
+        <v>1902</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>218</v>
+        <v>169</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>232</v>
+        <v>177</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -3169,22 +2871,22 @@
         <v>7</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>202</v>
+        <v>159</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>235</v>
+        <v>178</v>
+      </c>
+      <c r="D22" s="7">
+        <v>793</v>
+      </c>
+      <c r="E22" s="7">
+        <v>999</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>236</v>
+        <v>179</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>225</v>
+        <v>174</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -3192,22 +2894,22 @@
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>208</v>
+        <v>163</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>239</v>
+        <v>180</v>
+      </c>
+      <c r="D23" s="7">
+        <v>1019</v>
+      </c>
+      <c r="E23" s="7">
+        <v>1304</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>240</v>
+        <v>181</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>241</v>
+        <v>182</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -3215,22 +2917,22 @@
         <v>9</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>220</v>
+        <v>171</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>243</v>
+        <v>172</v>
+      </c>
+      <c r="D24" s="7">
+        <v>1008</v>
+      </c>
+      <c r="E24" s="7">
+        <v>1240</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>218</v>
+        <v>169</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>244</v>
+        <v>183</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -3238,22 +2940,22 @@
         <v>10</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>245</v>
+        <v>184</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>248</v>
+        <v>185</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1120</v>
+      </c>
+      <c r="E25" s="7">
+        <v>1254</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>218</v>
+        <v>169</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>249</v>
+        <v>186</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -3261,22 +2963,22 @@
         <v>11</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>208</v>
+        <v>163</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>251</v>
+        <v>164</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1180</v>
+      </c>
+      <c r="E26" s="7">
+        <v>1605</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>252</v>
+        <v>187</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>253</v>
+        <v>188</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3284,22 +2986,22 @@
         <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>208</v>
+        <v>163</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>256</v>
+        <v>189</v>
+      </c>
+      <c r="D27" s="7">
+        <v>1261</v>
+      </c>
+      <c r="E27" s="7">
+        <v>1715</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>257</v>
+        <v>190</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>219</v>
+        <v>170</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3307,22 +3009,22 @@
         <v>13</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>245</v>
+        <v>184</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>260</v>
+        <v>191</v>
+      </c>
+      <c r="D28" s="7">
+        <v>554</v>
+      </c>
+      <c r="E28" s="7">
+        <v>626</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>261</v>
+        <v>192</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>262</v>
+        <v>193</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3330,22 +3032,22 @@
         <v>14</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>263</v>
+        <v>194</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>266</v>
+        <v>195</v>
+      </c>
+      <c r="D29" s="7">
+        <v>1333</v>
+      </c>
+      <c r="E29" s="7">
+        <v>1600</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>267</v>
+        <v>196</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>219</v>
+        <v>170</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3353,22 +3055,22 @@
         <v>15</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>220</v>
+        <v>171</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>270</v>
+        <v>197</v>
+      </c>
+      <c r="D30" s="7">
+        <v>1308</v>
+      </c>
+      <c r="E30" s="7">
+        <v>1700</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>212</v>
+        <v>165</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>213</v>
+        <v>166</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3376,22 +3078,22 @@
         <v>16</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>208</v>
+        <v>163</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>272</v>
+        <v>160</v>
+      </c>
+      <c r="D31" s="7">
+        <v>1042</v>
+      </c>
+      <c r="E31" s="7">
+        <v>1355</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>267</v>
+        <v>196</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>273</v>
+        <v>198</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3399,22 +3101,22 @@
         <v>17</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>214</v>
+        <v>167</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>275</v>
+        <v>195</v>
+      </c>
+      <c r="D32" s="7">
+        <v>1065</v>
+      </c>
+      <c r="E32" s="7">
+        <v>1427</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>218</v>
+        <v>169</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>276</v>
+        <v>199</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3422,22 +3124,22 @@
         <v>18</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>220</v>
+        <v>171</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>278</v>
+        <v>172</v>
+      </c>
+      <c r="D33" s="7">
+        <v>1193</v>
+      </c>
+      <c r="E33" s="7">
+        <v>1587</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>212</v>
+        <v>165</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>244</v>
+        <v>183</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3445,22 +3147,22 @@
         <v>19</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>202</v>
+        <v>159</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>280</v>
+        <v>195</v>
+      </c>
+      <c r="D34" s="7">
+        <v>1264</v>
+      </c>
+      <c r="E34" s="7">
+        <v>1732</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>281</v>
+        <v>200</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>282</v>
+        <v>201</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3468,22 +3170,22 @@
         <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>208</v>
+        <v>163</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>285</v>
+        <v>202</v>
+      </c>
+      <c r="D35" s="7">
+        <v>534</v>
+      </c>
+      <c r="E35" s="7">
+        <v>721</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>286</v>
+        <v>203</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>282</v>
+        <v>201</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3491,22 +3193,22 @@
         <v>21</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>214</v>
+        <v>167</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>288</v>
+        <v>176</v>
+      </c>
+      <c r="D36" s="7">
+        <v>1103</v>
+      </c>
+      <c r="E36" s="7">
+        <v>1423</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>212</v>
+        <v>165</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>249</v>
+        <v>186</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3514,22 +3216,22 @@
         <v>22</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>220</v>
+        <v>171</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>290</v>
+        <v>197</v>
+      </c>
+      <c r="D37" s="7">
+        <v>595</v>
+      </c>
+      <c r="E37" s="7">
+        <v>702</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>257</v>
+        <v>190</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>291</v>
+        <v>204</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3537,22 +3239,22 @@
         <v>23</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>202</v>
+        <v>159</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>293</v>
+        <v>197</v>
+      </c>
+      <c r="D38" s="7">
+        <v>1023</v>
+      </c>
+      <c r="E38" s="7">
+        <v>1176</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>240</v>
+        <v>181</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>262</v>
+        <v>193</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3560,22 +3262,22 @@
         <v>24</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>245</v>
+        <v>184</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>296</v>
+        <v>205</v>
+      </c>
+      <c r="D39" s="7">
+        <v>1054</v>
+      </c>
+      <c r="E39" s="7">
+        <v>1307</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>236</v>
+        <v>179</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>282</v>
+        <v>201</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3583,22 +3285,22 @@
         <v>25</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>202</v>
+        <v>159</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>298</v>
+        <v>178</v>
+      </c>
+      <c r="D40" s="7">
+        <v>897</v>
+      </c>
+      <c r="E40" s="7">
+        <v>1005</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>286</v>
+        <v>203</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>253</v>
+        <v>188</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3606,68 +3308,58 @@
         <v>26</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>214</v>
+        <v>167</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>301</v>
+        <v>206</v>
+      </c>
+      <c r="D41" s="7">
+        <v>849</v>
+      </c>
+      <c r="E41" s="7">
+        <v>976</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>302</v>
+        <v>207</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>276</v>
+        <v>199</v>
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="13" t="s">
-        <v>179</v>
+      <c r="A44" s="17" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>303</v>
-      </c>
-      <c r="B45" s="14" t="s">
-        <v>183</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="B45" s="6"/>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>304</v>
-      </c>
-      <c r="B46" s="14" t="s">
-        <v>183</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="B46" s="6"/>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>305</v>
-      </c>
-      <c r="B47" s="14" t="s">
-        <v>183</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="B47" s="6"/>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>306</v>
-      </c>
-      <c r="B48" s="14" t="s">
-        <v>183</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="B48" s="6"/>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>307</v>
-      </c>
-      <c r="B49" s="14" t="s">
-        <v>183</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="B49" s="6"/>
     </row>
   </sheetData>
   <mergeCells>

--- a/excel/collective/zestawy_dla_uczniow/zestaw_036.xlsx
+++ b/excel/collective/zestawy_dla_uczniow/zestaw_036.xlsx
@@ -12,7 +12,8 @@
     <sheet name="Zadanie 3 - Sprzedaż" sheetId="3" r:id="rId6"/>
     <sheet name="Zadanie 4 - Średnie klasy" sheetId="4" r:id="rId7"/>
     <sheet name="Zadanie 5 - Dane osobowe" sheetId="5" r:id="rId8"/>
-    <sheet name="Zadanie 6 - Analiza" sheetId="6" r:id="rId9"/>
+    <sheet name="Zadanie 6 - Godziny pracy" sheetId="6" r:id="rId9"/>
+    <sheet name="Zadanie 7 - Analiza" sheetId="7" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="215">
   <si>
     <t>ZESTAW ZADAŃ NR 36 - CZĘŚĆ 1</t>
   </si>
@@ -61,19 +62,19 @@
     <t>Przedmiot</t>
   </si>
   <si>
-    <t>Jakub Lewandowski</t>
-  </si>
-  <si>
-    <t>Natalia Czarnecka</t>
-  </si>
-  <si>
-    <t>Hanna Król</t>
-  </si>
-  <si>
-    <t>Zuzanna Zawadzka</t>
-  </si>
-  <si>
-    <t>Anna Jaworska</t>
+    <t>Filip Kowalski</t>
+  </si>
+  <si>
+    <t>Anna Borkowska</t>
+  </si>
+  <si>
+    <t>Jan Wojciechowski</t>
+  </si>
+  <si>
+    <t>Amelia Piekarska</t>
+  </si>
+  <si>
+    <t>Mikołaj Szymański</t>
   </si>
   <si>
     <t>ŚREDNIA</t>
@@ -118,6 +119,9 @@
     <t>ŚREDNIA UCZNIA:</t>
   </si>
   <si>
+    <t>ŚREDNIA KLASY:</t>
+  </si>
+  <si>
     <t>ZESTAW ZADAŃ NR 36 - CZĘŚĆ 2: ZAKUPY</t>
   </si>
   <si>
@@ -145,22 +149,22 @@
     <t>Razem (zł)</t>
   </si>
   <si>
-    <t>Farby plakatowe 12 kolorów</t>
-  </si>
-  <si>
-    <t>Pędzelek</t>
+    <t>Blok rysunkowy A4</t>
+  </si>
+  <si>
+    <t>Linijka 30 cm</t>
   </si>
   <si>
     <t>Długopis niebieski</t>
   </si>
   <si>
+    <t>Zeszyt 60 kartek</t>
+  </si>
+  <si>
     <t>Ołówek HB</t>
   </si>
   <si>
-    <t>Gumka do mazania</t>
-  </si>
-  <si>
-    <t>Temperówka</t>
+    <t>Cyrkiel</t>
   </si>
   <si>
     <t>SUMA:</t>
@@ -217,6 +221,9 @@
     <t>SUMA z 3 miesięcy:</t>
   </si>
   <si>
+    <t>Średnia z 3 miesięcy:</t>
+  </si>
+  <si>
     <t>ZADANIE 4: ŚREDNIE KLASY</t>
   </si>
   <si>
@@ -232,7 +239,7 @@
     <t>3. Oblicz średią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
   </si>
   <si>
-    <t>4. Jeżeli średnia ucznia jest większa lub równa 4,5, wpisz "TAK", w przeciwnym razie "NIE" w kolumnie "Czy pasek?".</t>
+    <t>4. Jeżeli średnia ucznia jest większa lub równa 4,75, wpisz "TAK", w przeciwnym razie "NIE" w kolumnie "Czy pasek?".</t>
   </si>
   <si>
     <t>5. Oblicz średnią ocen dla każdego przedmiotu i wpisz w wierszu "Średnia przedmiotu:".</t>
@@ -259,39 +266,54 @@
     <t>Średnia ucznia</t>
   </si>
   <si>
-    <t>Czy pasek?</t>
+    <t>Czy śrecnia powyżej 4,75?</t>
+  </si>
+  <si>
+    <t>Anna</t>
+  </si>
+  <si>
+    <t>Malinowska</t>
+  </si>
+  <si>
+    <t>Kacper</t>
+  </si>
+  <si>
+    <t>Kowalczyk</t>
+  </si>
+  <si>
+    <t>Lena</t>
+  </si>
+  <si>
+    <t>Olszewska</t>
+  </si>
+  <si>
+    <t>Hanna</t>
+  </si>
+  <si>
+    <t>Maciejewska</t>
+  </si>
+  <si>
+    <t>Amelia</t>
+  </si>
+  <si>
+    <t>Wójcik</t>
+  </si>
+  <si>
+    <t>Zawadzka</t>
   </si>
   <si>
     <t>Zuzanna</t>
   </si>
   <si>
+    <t>Sikorska</t>
+  </si>
+  <si>
+    <t>Natalia</t>
+  </si>
+  <si>
     <t>Rogalska</t>
   </si>
   <si>
-    <t>Natalia</t>
-  </si>
-  <si>
-    <t>Olszewska</t>
-  </si>
-  <si>
-    <t>Szymon</t>
-  </si>
-  <si>
-    <t>Mazur</t>
-  </si>
-  <si>
-    <t>Maja</t>
-  </si>
-  <si>
-    <t>Piekarska</t>
-  </si>
-  <si>
-    <t>Jakub</t>
-  </si>
-  <si>
-    <t>Kowalczyk</t>
-  </si>
-  <si>
     <t>Średnia przedmiotu:</t>
   </si>
   <si>
@@ -325,112 +347,46 @@
     <t>Zarobki (zł)</t>
   </si>
   <si>
-    <t>Anna Piekarska</t>
-  </si>
-  <si>
-    <t>20.08.1997</t>
-  </si>
-  <si>
-    <t>Adam Lewandowski</t>
-  </si>
-  <si>
-    <t>19.06.2002</t>
-  </si>
-  <si>
-    <t>Oliwia Kubiak</t>
-  </si>
-  <si>
-    <t>10.06.1989</t>
-  </si>
-  <si>
-    <t>Adam Mazur</t>
-  </si>
-  <si>
-    <t>07.12.1989</t>
-  </si>
-  <si>
-    <t>Adam Piotrowski</t>
-  </si>
-  <si>
-    <t>01.08.1990</t>
-  </si>
-  <si>
-    <t>Antoni Grabowski</t>
-  </si>
-  <si>
-    <t>05.02.1981</t>
-  </si>
-  <si>
-    <t>Zuzanna Urbaniak</t>
-  </si>
-  <si>
-    <t>09.12.2003</t>
-  </si>
-  <si>
-    <t>Mikołaj Jankowski</t>
-  </si>
-  <si>
-    <t>18.06.2002</t>
-  </si>
-  <si>
-    <t>Kacper Grabowski</t>
-  </si>
-  <si>
-    <t>04.11.1977</t>
-  </si>
-  <si>
-    <t>Kacper Kozłowski</t>
-  </si>
-  <si>
-    <t>12.12.1998</t>
-  </si>
-  <si>
-    <t>Lena Bednarska</t>
-  </si>
-  <si>
-    <t>11.12.1994</t>
-  </si>
-  <si>
-    <t>Jakub Kowalski</t>
-  </si>
-  <si>
-    <t>16.01.1988</t>
-  </si>
-  <si>
-    <t>Amelia Król</t>
-  </si>
-  <si>
-    <t>07.02.1983</t>
-  </si>
-  <si>
-    <t>Natalia Wójcik</t>
-  </si>
-  <si>
-    <t>01.09.2003</t>
-  </si>
-  <si>
-    <t>Natalia Piekarska</t>
-  </si>
-  <si>
-    <t>28.10.2000</t>
-  </si>
-  <si>
-    <t>Mikołaj Mazur</t>
-  </si>
-  <si>
-    <t>27.04.1975</t>
-  </si>
-  <si>
-    <t>Szymon Szymański</t>
-  </si>
-  <si>
-    <t>05.02.2004</t>
-  </si>
-  <si>
-    <t>Lena Król</t>
-  </si>
-  <si>
-    <t>13.05.1994</t>
+    <t>Jakub Krawczyk</t>
+  </si>
+  <si>
+    <t>Oliwia Wilk</t>
+  </si>
+  <si>
+    <t>Emilia Malinowska</t>
+  </si>
+  <si>
+    <t>Zuzanna Król</t>
+  </si>
+  <si>
+    <t>Jakub Wiśniewski</t>
+  </si>
+  <si>
+    <t>Natalia Sikorska</t>
+  </si>
+  <si>
+    <t>Filip Zieliński</t>
+  </si>
+  <si>
+    <t>Jakub Kwiatkowski</t>
+  </si>
+  <si>
+    <t>Amelia Kaźmierczak</t>
+  </si>
+  <si>
+    <t>Szymon Zieliński</t>
+  </si>
+  <si>
+    <t>Amelia Malinowska</t>
+  </si>
+  <si>
+    <t>Kacper Kwiatkowski</t>
+  </si>
+  <si>
+    <t>Emilia Lis</t>
+  </si>
+  <si>
+    <t>Anna Olszewska</t>
   </si>
   <si>
     <t>OBLICZENIA:</t>
@@ -445,7 +401,58 @@
     <t>Najmniejsze zarobki:</t>
   </si>
   <si>
-    <t>ZADANIE 6 - ANALIZA SPRZEDAŻY</t>
+    <t>ZADANIE 6 - DANE OSOBOWE I ILOŚĆ GODZIN PRACY</t>
+  </si>
+  <si>
+    <t>1. Oblicz ilość przepracowanych godzin dla każdej osoby</t>
+  </si>
+  <si>
+    <t>2. Podaj zarobki dla każdej osoby (stawka godzinowa × ilość przepracowanych godzin)</t>
+  </si>
+  <si>
+    <t>Stawka godzinowa (zł/h):</t>
+  </si>
+  <si>
+    <t>Ilość przepracowanych godzin</t>
+  </si>
+  <si>
+    <t>Amelia Bednarska</t>
+  </si>
+  <si>
+    <t>Filip Piotrowski</t>
+  </si>
+  <si>
+    <t>Anna Czarnecka</t>
+  </si>
+  <si>
+    <t>Kacper Kamiński</t>
+  </si>
+  <si>
+    <t>Wojciech Wójcik</t>
+  </si>
+  <si>
+    <t>Emilia Urbaniak</t>
+  </si>
+  <si>
+    <t>Jakub Zieliński</t>
+  </si>
+  <si>
+    <t>Amelia Maciejewska</t>
+  </si>
+  <si>
+    <t>Anna Urbaniak</t>
+  </si>
+  <si>
+    <t>Lena Kubiak</t>
+  </si>
+  <si>
+    <t>Jakub Mazur</t>
+  </si>
+  <si>
+    <t>Natalia Borkowska</t>
+  </si>
+  <si>
+    <t>ZADANIE 7 - ANALIZA SPRZEDAŻY</t>
   </si>
   <si>
     <t>1. Rozbij kolumnę "Sprzedawca" na dwie osobne kolumny: "Imię" i "Nazwisko"</t>
@@ -499,151 +506,151 @@
     <t>Województwo</t>
   </si>
   <si>
+    <t>czerwiec</t>
+  </si>
+  <si>
+    <t>Zasilacz 650W</t>
+  </si>
+  <si>
+    <t>Piotr Wiśniewski</t>
+  </si>
+  <si>
+    <t>wielkopolskie</t>
+  </si>
+  <si>
     <t>kwiecień</t>
   </si>
   <si>
-    <t>Procesor i5</t>
-  </si>
-  <si>
-    <t>Paweł Kwiatkowski</t>
+    <t>Pamięć RAM 16GB</t>
+  </si>
+  <si>
+    <t>Monika Krawczyk</t>
   </si>
   <si>
     <t>lubuskie</t>
   </si>
   <si>
+    <t>Powerbank 20000mAh</t>
+  </si>
+  <si>
+    <t>warmińsko-mazurskie</t>
+  </si>
+  <si>
+    <t>Głośnik Bluetooth</t>
+  </si>
+  <si>
+    <t>Magdalena Szymańska</t>
+  </si>
+  <si>
+    <t>podkarpackie</t>
+  </si>
+  <si>
+    <t>Tablet 10"</t>
+  </si>
+  <si>
+    <t>pomorskie</t>
+  </si>
+  <si>
+    <t>Słuchawki bezprzewodowe</t>
+  </si>
+  <si>
+    <t>Agnieszka Wojciechowska</t>
+  </si>
+  <si>
+    <t>kujawsko-pomorskie</t>
+  </si>
+  <si>
+    <t>Mysz gamingowa</t>
+  </si>
+  <si>
+    <t>Marcin Zieliński</t>
+  </si>
+  <si>
+    <t>łódzkie</t>
+  </si>
+  <si>
+    <t>styczeń</t>
+  </si>
+  <si>
+    <t>Smartphone 5G 128GB</t>
+  </si>
+  <si>
+    <t>mazowieckie</t>
+  </si>
+  <si>
+    <t>Monitor 24" 4K</t>
+  </si>
+  <si>
+    <t>Jan Kowalski</t>
+  </si>
+  <si>
+    <t>lubelskie</t>
+  </si>
+  <si>
     <t>maj</t>
   </si>
   <si>
-    <t>Kamera internetowa</t>
+    <t>marzec</t>
+  </si>
+  <si>
+    <t>Płyta główna</t>
+  </si>
+  <si>
+    <t>zachodniopomorskie</t>
+  </si>
+  <si>
+    <t>Smartwatch</t>
+  </si>
+  <si>
+    <t>Katarzyna Mazur</t>
+  </si>
+  <si>
+    <t>Projektor multimedialny</t>
+  </si>
+  <si>
+    <t>Anna Nowak</t>
+  </si>
+  <si>
+    <t>śląskie</t>
+  </si>
+  <si>
+    <t>Laptop Gaming i7</t>
+  </si>
+  <si>
+    <t>opolskie</t>
+  </si>
+  <si>
+    <t>Ewa Kowalczyk</t>
+  </si>
+  <si>
+    <t>świętokrzyskie</t>
+  </si>
+  <si>
+    <t>Smart TV 55"</t>
+  </si>
+  <si>
+    <t>luty</t>
+  </si>
+  <si>
+    <t>Konsola do gier</t>
+  </si>
+  <si>
+    <t>Obudowa gamingowa</t>
+  </si>
+  <si>
+    <t>Odtwarzacz DVD</t>
   </si>
   <si>
     <t>Michał Jankowski</t>
   </si>
   <si>
-    <t>kujawsko-pomorskie</t>
-  </si>
-  <si>
-    <t>luty</t>
-  </si>
-  <si>
-    <t>Smart TV 55"</t>
-  </si>
-  <si>
-    <t>Magdalena Szymańska</t>
-  </si>
-  <si>
-    <t>zachodniopomorskie</t>
-  </si>
-  <si>
-    <t>czerwiec</t>
-  </si>
-  <si>
-    <t>Odtwarzacz DVD</t>
-  </si>
-  <si>
-    <t>Anna Nowak</t>
-  </si>
-  <si>
-    <t>świętokrzyskie</t>
-  </si>
-  <si>
-    <t>Głośnik Bluetooth</t>
-  </si>
-  <si>
-    <t>Projektor multimedialny</t>
-  </si>
-  <si>
-    <t>mazowieckie</t>
-  </si>
-  <si>
-    <t>Konsola do gier</t>
-  </si>
-  <si>
-    <t>Barbara Kozłowska</t>
-  </si>
-  <si>
-    <t>Laptop Gaming i7</t>
-  </si>
-  <si>
-    <t>Jan Kowalski</t>
-  </si>
-  <si>
-    <t>łódzkie</t>
-  </si>
-  <si>
-    <t>opolskie</t>
-  </si>
-  <si>
-    <t>marzec</t>
-  </si>
-  <si>
-    <t>Router Wi-Fi 6</t>
-  </si>
-  <si>
-    <t>warmińsko-mazurskie</t>
-  </si>
-  <si>
-    <t>Katarzyna Mazur</t>
-  </si>
-  <si>
-    <t>śląskie</t>
-  </si>
-  <si>
-    <t>Dysk SSD 1TB</t>
-  </si>
-  <si>
-    <t>Piotr Wiśniewski</t>
-  </si>
-  <si>
-    <t>Karta graficzna RTX</t>
-  </si>
-  <si>
-    <t>Maria Dąbrowska</t>
-  </si>
-  <si>
-    <t>wielkopolskie</t>
-  </si>
-  <si>
-    <t>styczeń</t>
-  </si>
-  <si>
-    <t>Drukarka laserowa</t>
-  </si>
-  <si>
-    <t>Krzysztof Lewandowski</t>
-  </si>
-  <si>
-    <t>Tablet 10"</t>
-  </si>
-  <si>
-    <t>podkarpackie</t>
-  </si>
-  <si>
-    <t>pomorskie</t>
-  </si>
-  <si>
-    <t>Agnieszka Wojciechowska</t>
-  </si>
-  <si>
-    <t>dolnośląskie</t>
-  </si>
-  <si>
-    <t>Powerbank 20000mAh</t>
-  </si>
-  <si>
-    <t>Ewa Kowalczyk</t>
-  </si>
-  <si>
     <t>małopolskie</t>
   </si>
   <si>
-    <t>Smartphone 5G 128GB</t>
-  </si>
-  <si>
-    <t>Obudowa gamingowa</t>
-  </si>
-  <si>
-    <t>Monika Krawczyk</t>
+    <t>Mikrofon studyjny</t>
+  </si>
+  <si>
+    <t>Andrzej Woźniak</t>
   </si>
   <si>
     <t>Suma ceny sprzedaży:</t>
@@ -715,7 +722,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -738,12 +745,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFD9EAD3"/>
         <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9EAD3"/>
-        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
   </fills>
@@ -774,7 +775,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -785,13 +786,12 @@
     <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="164" fillId="5" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
@@ -1098,7 +1098,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A16" sqref="A16:G16"/>
@@ -1206,13 +1206,13 @@
         <v>2</v>
       </c>
       <c r="C17" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D17" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E17" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F17" s="3">
         <v>4</v>
@@ -1224,19 +1224,19 @@
         <v>20</v>
       </c>
       <c r="B18" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C18" s="3">
         <v>3</v>
       </c>
       <c r="D18" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E18" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F18" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G18" s="4"/>
     </row>
@@ -1248,16 +1248,16 @@
         <v>5</v>
       </c>
       <c r="C19" s="3">
+        <v>5</v>
+      </c>
+      <c r="D19" s="3">
         <v>6</v>
       </c>
-      <c r="D19" s="3">
+      <c r="E19" s="3">
         <v>2</v>
       </c>
-      <c r="E19" s="3">
-        <v>4</v>
-      </c>
       <c r="F19" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G19" s="4"/>
     </row>
@@ -1266,19 +1266,19 @@
         <v>22</v>
       </c>
       <c r="B20" s="3">
+        <v>6</v>
+      </c>
+      <c r="C20" s="3">
+        <v>6</v>
+      </c>
+      <c r="D20" s="3">
         <v>2</v>
       </c>
-      <c r="C20" s="3">
-        <v>2</v>
-      </c>
-      <c r="D20" s="3">
-        <v>3</v>
-      </c>
       <c r="E20" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F20" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G20" s="4"/>
     </row>
@@ -1287,19 +1287,19 @@
         <v>23</v>
       </c>
       <c r="B21" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C21" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D21" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E21" s="3">
         <v>5</v>
       </c>
       <c r="F21" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G21" s="4"/>
     </row>
@@ -1308,19 +1308,19 @@
         <v>24</v>
       </c>
       <c r="B22" s="3">
+        <v>4</v>
+      </c>
+      <c r="C22" s="3">
+        <v>5</v>
+      </c>
+      <c r="D22" s="3">
         <v>6</v>
       </c>
-      <c r="C22" s="3">
+      <c r="E22" s="3">
+        <v>4</v>
+      </c>
+      <c r="F22" s="3">
         <v>3</v>
-      </c>
-      <c r="D22" s="3">
-        <v>4</v>
-      </c>
-      <c r="E22" s="3">
-        <v>3</v>
-      </c>
-      <c r="F22" s="3">
-        <v>4</v>
       </c>
       <c r="G22" s="4"/>
     </row>
@@ -1329,19 +1329,19 @@
         <v>25</v>
       </c>
       <c r="B23" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C23" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23" s="3">
         <v>4</v>
       </c>
       <c r="E23" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F23" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G23" s="4"/>
     </row>
@@ -1350,19 +1350,19 @@
         <v>26</v>
       </c>
       <c r="B24" s="3">
+        <v>4</v>
+      </c>
+      <c r="C24" s="3">
         <v>6</v>
       </c>
-      <c r="C24" s="3">
+      <c r="D24" s="3">
         <v>4</v>
       </c>
-      <c r="D24" s="3">
-        <v>5</v>
-      </c>
       <c r="E24" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F24" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G24" s="4"/>
     </row>
@@ -1371,13 +1371,13 @@
         <v>27</v>
       </c>
       <c r="B25" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C25" s="3">
+        <v>2</v>
+      </c>
+      <c r="D25" s="3">
         <v>5</v>
-      </c>
-      <c r="D25" s="3">
-        <v>4</v>
       </c>
       <c r="E25" s="3">
         <v>3</v>
@@ -1392,16 +1392,16 @@
         <v>28</v>
       </c>
       <c r="B26" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C26" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D26" s="3">
         <v>6</v>
       </c>
       <c r="E26" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F26" s="3">
         <v>6</v>
@@ -1413,16 +1413,16 @@
         <v>29</v>
       </c>
       <c r="B27" s="3">
+        <v>3</v>
+      </c>
+      <c r="C27" s="3">
+        <v>6</v>
+      </c>
+      <c r="D27" s="3">
+        <v>2</v>
+      </c>
+      <c r="E27" s="3">
         <v>4</v>
-      </c>
-      <c r="C27" s="3">
-        <v>2</v>
-      </c>
-      <c r="D27" s="3">
-        <v>4</v>
-      </c>
-      <c r="E27" s="3">
-        <v>6</v>
       </c>
       <c r="F27" s="3">
         <v>2</v>
@@ -1443,10 +1443,10 @@
         <v>6</v>
       </c>
       <c r="E28" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F28" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G28" s="4"/>
     </row>
@@ -1459,6 +1459,12 @@
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="2"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1492,7 +1498,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1512,7 +1518,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1522,29 +1528,29 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1552,99 +1558,99 @@
         <v>1</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="7">
-        <v>22.2</v>
+        <v>42</v>
+      </c>
+      <c r="C13" s="8">
+        <v>6.5</v>
       </c>
       <c r="D13" s="3">
-        <v>1</v>
-      </c>
-      <c r="E13" s="8"/>
+        <v>5</v>
+      </c>
+      <c r="E13" s="9"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3">
         <v>2</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="7">
-        <v>3.1</v>
+        <v>43</v>
+      </c>
+      <c r="C14" s="8">
+        <v>4.3</v>
       </c>
       <c r="D14" s="3">
-        <v>10</v>
-      </c>
-      <c r="E14" s="8"/>
+        <v>2</v>
+      </c>
+      <c r="E14" s="9"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3">
         <v>3</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="7">
-        <v>2.5</v>
+        <v>44</v>
+      </c>
+      <c r="C15" s="8">
+        <v>2</v>
       </c>
       <c r="D15" s="3">
-        <v>5</v>
-      </c>
-      <c r="E15" s="8"/>
+        <v>8</v>
+      </c>
+      <c r="E15" s="9"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3">
         <v>4</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="7">
-        <v>1.1</v>
+        <v>45</v>
+      </c>
+      <c r="C16" s="8">
+        <v>4.2</v>
       </c>
       <c r="D16" s="3">
-        <v>5</v>
-      </c>
-      <c r="E16" s="8"/>
+        <v>6</v>
+      </c>
+      <c r="E16" s="9"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3">
         <v>5</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="7">
-        <v>1.1</v>
+        <v>46</v>
+      </c>
+      <c r="C17" s="8">
+        <v>0.9</v>
       </c>
       <c r="D17" s="3">
-        <v>1</v>
-      </c>
-      <c r="E17" s="8"/>
+        <v>5</v>
+      </c>
+      <c r="E17" s="9"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3">
         <v>6</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="7">
-        <v>2.5</v>
+        <v>47</v>
+      </c>
+      <c r="C18" s="8">
+        <v>8.1</v>
       </c>
       <c r="D18" s="3">
-        <v>8</v>
-      </c>
-      <c r="E18" s="8"/>
+        <v>9</v>
+      </c>
+      <c r="E18" s="9"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E19" s="8"/>
+        <v>48</v>
+      </c>
+      <c r="E19" s="9"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1661,10 +1667,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A13" sqref="A13:D37"/>
+      <selection activeCell="A13" sqref="A13:D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1677,7 +1683,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1702,27 +1708,27 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="13" t="s">
-        <v>53</v>
+      <c r="A13" s="12" t="s">
+        <v>54</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1730,85 +1736,85 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" s="7">
-        <v>24.75</v>
+        <v>55</v>
+      </c>
+      <c r="B15" s="8">
+        <v>18.36</v>
       </c>
       <c r="C15" s="3">
-        <v>12</v>
-      </c>
-      <c r="D15" s="8"/>
+        <v>41</v>
+      </c>
+      <c r="D15" s="9"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B16" s="7">
-        <v>26.17</v>
+        <v>56</v>
+      </c>
+      <c r="B16" s="8">
+        <v>3.26</v>
       </c>
       <c r="C16" s="3">
-        <v>20</v>
-      </c>
-      <c r="D16" s="8"/>
+        <v>13</v>
+      </c>
+      <c r="D16" s="9"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17" s="7">
-        <v>12.27</v>
+        <v>57</v>
+      </c>
+      <c r="B17" s="8">
+        <v>11.64</v>
       </c>
       <c r="C17" s="3">
-        <v>23</v>
-      </c>
-      <c r="D17" s="8"/>
+        <v>34</v>
+      </c>
+      <c r="D17" s="9"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B18" s="7">
-        <v>6.87</v>
+        <v>58</v>
+      </c>
+      <c r="B18" s="8">
+        <v>25.5</v>
       </c>
       <c r="C18" s="3">
-        <v>15</v>
-      </c>
-      <c r="D18" s="8"/>
+        <v>43</v>
+      </c>
+      <c r="D18" s="9"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" s="7">
-        <v>24.12</v>
+        <v>59</v>
+      </c>
+      <c r="B19" s="8">
+        <v>14.53</v>
       </c>
       <c r="C19" s="3">
-        <v>49</v>
-      </c>
-      <c r="D19" s="8"/>
+        <v>21</v>
+      </c>
+      <c r="D19" s="9"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="D20" s="14"/>
+      <c r="C20" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="13"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3"/>
@@ -1817,8 +1823,8 @@
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="13" t="s">
-        <v>60</v>
+      <c r="A22" s="12" t="s">
+        <v>61</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1826,85 +1832,85 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B24" s="7">
-        <v>16.61</v>
+        <v>55</v>
+      </c>
+      <c r="B24" s="8">
+        <v>12.88</v>
       </c>
       <c r="C24" s="3">
-        <v>25</v>
-      </c>
-      <c r="D24" s="8"/>
+        <v>48</v>
+      </c>
+      <c r="D24" s="9"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B25" s="7">
-        <v>7.23</v>
+        <v>56</v>
+      </c>
+      <c r="B25" s="8">
+        <v>8.46</v>
       </c>
       <c r="C25" s="3">
-        <v>40</v>
-      </c>
-      <c r="D25" s="8"/>
+        <v>31</v>
+      </c>
+      <c r="D25" s="9"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B26" s="7">
-        <v>3.35</v>
+        <v>57</v>
+      </c>
+      <c r="B26" s="8">
+        <v>30.64</v>
       </c>
       <c r="C26" s="3">
-        <v>38</v>
-      </c>
-      <c r="D26" s="8"/>
+        <v>6</v>
+      </c>
+      <c r="D26" s="9"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B27" s="7">
-        <v>18.7</v>
+        <v>58</v>
+      </c>
+      <c r="B27" s="8">
+        <v>19.92</v>
       </c>
       <c r="C27" s="3">
-        <v>24</v>
-      </c>
-      <c r="D27" s="8"/>
+        <v>22</v>
+      </c>
+      <c r="D27" s="9"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B28" s="7">
-        <v>16.17</v>
+        <v>59</v>
+      </c>
+      <c r="B28" s="8">
+        <v>5.19</v>
       </c>
       <c r="C28" s="3">
-        <v>5</v>
-      </c>
-      <c r="D28" s="8"/>
+        <v>14</v>
+      </c>
+      <c r="D28" s="9"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="D29" s="14"/>
+      <c r="C29" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" s="13"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="3"/>
@@ -1913,8 +1919,8 @@
       <c r="D30" s="3"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="13" t="s">
-        <v>62</v>
+      <c r="A31" s="12" t="s">
+        <v>63</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1922,89 +1928,97 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B33" s="7">
-        <v>10.92</v>
+        <v>55</v>
+      </c>
+      <c r="B33" s="8">
+        <v>22.59</v>
       </c>
       <c r="C33" s="3">
-        <v>18</v>
-      </c>
-      <c r="D33" s="8"/>
+        <v>44</v>
+      </c>
+      <c r="D33" s="9"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B34" s="7">
-        <v>21.72</v>
+        <v>56</v>
+      </c>
+      <c r="B34" s="8">
+        <v>17.77</v>
       </c>
       <c r="C34" s="3">
-        <v>36</v>
-      </c>
-      <c r="D34" s="8"/>
+        <v>20</v>
+      </c>
+      <c r="D34" s="9"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B35" s="7">
-        <v>1.9</v>
+        <v>57</v>
+      </c>
+      <c r="B35" s="8">
+        <v>6.54</v>
       </c>
       <c r="C35" s="3">
-        <v>21</v>
-      </c>
-      <c r="D35" s="8"/>
+        <v>41</v>
+      </c>
+      <c r="D35" s="9"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B36" s="7">
-        <v>18.52</v>
+        <v>58</v>
+      </c>
+      <c r="B36" s="8">
+        <v>5.69</v>
       </c>
       <c r="C36" s="3">
-        <v>46</v>
-      </c>
-      <c r="D36" s="8"/>
+        <v>6</v>
+      </c>
+      <c r="D36" s="9"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B37" s="7">
-        <v>25.42</v>
+        <v>59</v>
+      </c>
+      <c r="B37" s="8">
+        <v>23.65</v>
       </c>
       <c r="C37" s="3">
-        <v>27</v>
-      </c>
-      <c r="D37" s="8"/>
+        <v>31</v>
+      </c>
+      <c r="D37" s="9"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="C38" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="D38" s="11"/>
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D38" s="13"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="C40" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D40" s="12"/>
+      <c r="C40" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D40" s="2"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="C41" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D41" s="7"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2024,10 +2038,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A11" sqref="A11:L18"/>
+      <selection activeCell="A11" sqref="A11:L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2047,105 +2061,105 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="15" t="s">
-        <v>65</v>
+      <c r="A1" s="14" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="C11" s="16" t="s">
+      <c r="A11" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="B11" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="H11" s="16" t="s">
+      <c r="G11" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="H11" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="16" t="s">
+      <c r="I11" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="K11" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="L11" s="16" t="s">
+      <c r="J11" s="15" t="s">
         <v>79</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="L11" s="15" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="4"/>
       <c r="B12" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D12" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E12" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F12" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G12" s="3">
         <v>2</v>
       </c>
       <c r="H12" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I12" s="3">
         <v>3</v>
@@ -2159,28 +2173,28 @@
     <row r="13" spans="1:12">
       <c r="A13" s="4"/>
       <c r="B13" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D13" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E13" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F13" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G13" s="3">
         <v>5</v>
       </c>
       <c r="H13" s="3">
+        <v>6</v>
+      </c>
+      <c r="I13" s="3">
         <v>5</v>
-      </c>
-      <c r="I13" s="3">
-        <v>4</v>
       </c>
       <c r="J13" s="3">
         <v>5</v>
@@ -2191,28 +2205,28 @@
     <row r="14" spans="1:12">
       <c r="A14" s="4"/>
       <c r="B14" s="3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D14" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E14" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F14" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G14" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H14" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I14" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J14" s="3">
         <v>6</v>
@@ -2223,31 +2237,31 @@
     <row r="15" spans="1:12">
       <c r="A15" s="4"/>
       <c r="B15" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D15" s="3">
+        <v>3</v>
+      </c>
+      <c r="E15" s="3">
+        <v>3</v>
+      </c>
+      <c r="F15" s="3">
         <v>2</v>
       </c>
-      <c r="E15" s="3">
-        <v>5</v>
-      </c>
-      <c r="F15" s="3">
-        <v>5</v>
-      </c>
       <c r="G15" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H15" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I15" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J15" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
@@ -2255,72 +2269,168 @@
     <row r="16" spans="1:12">
       <c r="A16" s="4"/>
       <c r="B16" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D16" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E16" s="3">
+        <v>4</v>
+      </c>
+      <c r="F16" s="3">
+        <v>4</v>
+      </c>
+      <c r="G16" s="3">
+        <v>2</v>
+      </c>
+      <c r="H16" s="3">
         <v>3</v>
       </c>
-      <c r="F16" s="3">
-        <v>6</v>
-      </c>
-      <c r="G16" s="3">
-        <v>6</v>
-      </c>
-      <c r="H16" s="3">
-        <v>5</v>
-      </c>
       <c r="I16" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J16" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D17" s="3">
+        <v>3</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2</v>
+      </c>
+      <c r="F17" s="3">
+        <v>3</v>
+      </c>
+      <c r="G17" s="3">
+        <v>2</v>
+      </c>
+      <c r="H17" s="3">
+        <v>2</v>
+      </c>
+      <c r="I17" s="3">
+        <v>3</v>
+      </c>
+      <c r="J17" s="3">
+        <v>3</v>
+      </c>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D18" s="3">
+        <v>4</v>
+      </c>
+      <c r="E18" s="3">
+        <v>2</v>
+      </c>
+      <c r="F18" s="3">
+        <v>2</v>
+      </c>
+      <c r="G18" s="3">
+        <v>3</v>
+      </c>
+      <c r="H18" s="3">
+        <v>3</v>
+      </c>
+      <c r="I18" s="3">
+        <v>2</v>
+      </c>
+      <c r="J18" s="3">
+        <v>2</v>
+      </c>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="4"/>
+      <c r="B19" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D19" s="3">
+        <v>3</v>
+      </c>
+      <c r="E19" s="3">
+        <v>3</v>
+      </c>
+      <c r="F19" s="3">
+        <v>4</v>
+      </c>
+      <c r="G19" s="3">
+        <v>4</v>
+      </c>
+      <c r="H19" s="3">
+        <v>2</v>
+      </c>
+      <c r="I19" s="3">
+        <v>3</v>
+      </c>
+      <c r="J19" s="3">
+        <v>2</v>
+      </c>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:K1"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="D18:L18"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="D21:L21"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2333,10 +2443,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A32" sqref="A32:B34"/>
+      <selection activeCell="A28" sqref="A28:B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2347,271 +2457,227 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="15" t="s">
-        <v>92</v>
+      <c r="A1" s="14" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="5" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C11" s="7">
-        <v>7300</v>
+        <v>108</v>
+      </c>
+      <c r="B11" s="3">
+        <v>2000</v>
+      </c>
+      <c r="C11" s="8">
+        <v>4181</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C12" s="7">
-        <v>14584</v>
+        <v>109</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1984</v>
+      </c>
+      <c r="C12" s="8">
+        <v>6945</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C13" s="7">
-        <v>11154</v>
+        <v>110</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1990</v>
+      </c>
+      <c r="C13" s="8">
+        <v>8731</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C14" s="7">
-        <v>7355</v>
+        <v>111</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1987</v>
+      </c>
+      <c r="C14" s="8">
+        <v>3964</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="C15" s="7">
-        <v>13688</v>
+        <v>112</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1985</v>
+      </c>
+      <c r="C15" s="8">
+        <v>2861</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C16" s="7">
-        <v>4423</v>
+        <v>113</v>
+      </c>
+      <c r="B16" s="3">
+        <v>1991</v>
+      </c>
+      <c r="C16" s="8">
+        <v>10538</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B17" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C17" s="7">
-        <v>6072</v>
+      <c r="B17" s="3">
+        <v>1991</v>
+      </c>
+      <c r="C17" s="8">
+        <v>10317</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C18" s="7">
-        <v>14768</v>
+      <c r="B18" s="3">
+        <v>1975</v>
+      </c>
+      <c r="C18" s="8">
+        <v>2909</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C19" s="7">
-        <v>5950</v>
+        <v>116</v>
+      </c>
+      <c r="B19" s="3">
+        <v>1988</v>
+      </c>
+      <c r="C19" s="8">
+        <v>14270</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C20" s="7">
-        <v>9995</v>
+        <v>117</v>
+      </c>
+      <c r="B20" s="3">
+        <v>1994</v>
+      </c>
+      <c r="C20" s="8">
+        <v>11198</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C21" s="7">
-        <v>6886</v>
+        <v>118</v>
+      </c>
+      <c r="B21" s="3">
+        <v>1979</v>
+      </c>
+      <c r="C21" s="8">
+        <v>4695</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C22" s="7">
-        <v>7563</v>
+        <v>119</v>
+      </c>
+      <c r="B22" s="3">
+        <v>1994</v>
+      </c>
+      <c r="C22" s="8">
+        <v>5314</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C23" s="7">
-        <v>2597</v>
+        <v>120</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1994</v>
+      </c>
+      <c r="C23" s="8">
+        <v>7483</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C24" s="7">
-        <v>11965</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C25" s="7">
-        <v>4232</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C26" s="7">
-        <v>3912</v>
+        <v>121</v>
+      </c>
+      <c r="B24" s="3">
+        <v>1998</v>
+      </c>
+      <c r="C24" s="8">
+        <v>14657</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C27" s="7">
-        <v>8825</v>
+      <c r="A27" s="16" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C28" s="7">
-        <v>11642</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="17" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" t="s">
-        <v>138</v>
-      </c>
-      <c r="B32" s="2"/>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" t="s">
-        <v>139</v>
-      </c>
-      <c r="B33" s="6"/>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" t="s">
-        <v>140</v>
-      </c>
-      <c r="B34" s="6"/>
+      <c r="A28" t="s">
+        <v>123</v>
+      </c>
+      <c r="B28" s="2"/>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>124</v>
+      </c>
+      <c r="B29" s="7"/>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>125</v>
+      </c>
+      <c r="B30" s="7"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2628,10 +2694,185 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A45" sqref="A45:B49"/>
+      <selection activeCell="A10" sqref="A10:C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="25" customWidth="true" style="0"/>
+    <col min="2" max="2" width="15" customWidth="true" style="0"/>
+    <col min="3" max="3" width="18" customWidth="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="14" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B8" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B11" s="3">
+        <v>157</v>
+      </c>
+      <c r="C11" s="9"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B12" s="3">
+        <v>148</v>
+      </c>
+      <c r="C12" s="9"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B13" s="3">
+        <v>147</v>
+      </c>
+      <c r="C13" s="9"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B14" s="3">
+        <v>115</v>
+      </c>
+      <c r="C14" s="9"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B15" s="3">
+        <v>183</v>
+      </c>
+      <c r="C15" s="9"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B16" s="3">
+        <v>190</v>
+      </c>
+      <c r="C16" s="9"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B17" s="3">
+        <v>176</v>
+      </c>
+      <c r="C17" s="9"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B18" s="3">
+        <v>133</v>
+      </c>
+      <c r="C18" s="9"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B19" s="3">
+        <v>145</v>
+      </c>
+      <c r="C19" s="9"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B20" s="3">
+        <v>159</v>
+      </c>
+      <c r="C20" s="9"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B21" s="3">
+        <v>116</v>
+      </c>
+      <c r="C21" s="9"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B22" s="3">
+        <v>158</v>
+      </c>
+      <c r="C22" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:G51"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A47" sqref="A47:B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2646,86 +2887,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="15" t="s">
-        <v>141</v>
+      <c r="A1" s="14" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="5" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2733,22 +2974,22 @@
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="D16" s="7">
-        <v>877</v>
-      </c>
-      <c r="E16" s="7">
-        <v>1210</v>
+        <v>162</v>
+      </c>
+      <c r="D16" s="8">
+        <v>1089</v>
+      </c>
+      <c r="E16" s="8">
+        <v>1492</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2756,22 +2997,22 @@
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="D17" s="7">
-        <v>1130</v>
-      </c>
-      <c r="E17" s="7">
-        <v>1469</v>
+        <v>166</v>
+      </c>
+      <c r="D17" s="8">
+        <v>1300</v>
+      </c>
+      <c r="E17" s="8">
+        <v>1781</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2779,19 +3020,19 @@
         <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="D18" s="7">
-        <v>1387</v>
-      </c>
-      <c r="E18" s="7">
-        <v>1692</v>
+        <v>169</v>
+      </c>
+      <c r="D18" s="8">
+        <v>884</v>
+      </c>
+      <c r="E18" s="8">
+        <v>1096</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>170</v>
@@ -2802,22 +3043,22 @@
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="D19" s="8">
+        <v>1284</v>
+      </c>
+      <c r="E19" s="8">
+        <v>1541</v>
+      </c>
+      <c r="F19" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="D19" s="7">
-        <v>1174</v>
-      </c>
-      <c r="E19" s="7">
-        <v>1503</v>
-      </c>
-      <c r="F19" s="3" t="s">
+      <c r="G19" s="3" t="s">
         <v>173</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -2825,22 +3066,22 @@
         <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C20" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D20" s="8">
+        <v>1131</v>
+      </c>
+      <c r="E20" s="8">
+        <v>1402</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="G20" s="3" t="s">
         <v>175</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1485</v>
-      </c>
-      <c r="E20" s="7">
-        <v>1916</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2848,22 +3089,22 @@
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="D21" s="7">
-        <v>1463</v>
-      </c>
-      <c r="E21" s="7">
-        <v>1902</v>
+        <v>171</v>
+      </c>
+      <c r="D21" s="8">
+        <v>1370</v>
+      </c>
+      <c r="E21" s="8">
+        <v>1562</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2871,22 +3112,22 @@
         <v>7</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="C22" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D22" s="8">
+        <v>595</v>
+      </c>
+      <c r="E22" s="8">
+        <v>690</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="G22" s="3" t="s">
         <v>178</v>
-      </c>
-      <c r="D22" s="7">
-        <v>793</v>
-      </c>
-      <c r="E22" s="7">
-        <v>999</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2894,22 +3135,22 @@
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C23" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D23" s="8">
+        <v>1096</v>
+      </c>
+      <c r="E23" s="8">
+        <v>1447</v>
+      </c>
+      <c r="F23" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="D23" s="7">
-        <v>1019</v>
-      </c>
-      <c r="E23" s="7">
-        <v>1304</v>
-      </c>
-      <c r="F23" s="3" t="s">
+      <c r="G23" s="3" t="s">
         <v>181</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2917,22 +3158,22 @@
         <v>9</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="D24" s="7">
-        <v>1008</v>
-      </c>
-      <c r="E24" s="7">
-        <v>1240</v>
+        <v>183</v>
+      </c>
+      <c r="D24" s="8">
+        <v>1489</v>
+      </c>
+      <c r="E24" s="8">
+        <v>1802</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2940,22 +3181,22 @@
         <v>10</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="D25" s="7">
-        <v>1120</v>
-      </c>
-      <c r="E25" s="7">
-        <v>1254</v>
+      <c r="D25" s="8">
+        <v>1147</v>
+      </c>
+      <c r="E25" s="8">
+        <v>1411</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2963,22 +3204,22 @@
         <v>11</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>163</v>
+        <v>188</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="D26" s="7">
-        <v>1180</v>
-      </c>
-      <c r="E26" s="7">
-        <v>1605</v>
+        <v>185</v>
+      </c>
+      <c r="D26" s="8">
+        <v>1092</v>
+      </c>
+      <c r="E26" s="8">
+        <v>1441</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2986,22 +3227,22 @@
         <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>163</v>
+        <v>189</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="D27" s="7">
-        <v>1261</v>
-      </c>
-      <c r="E27" s="7">
-        <v>1715</v>
+        <v>190</v>
+      </c>
+      <c r="D27" s="8">
+        <v>892</v>
+      </c>
+      <c r="E27" s="8">
+        <v>1133</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>170</v>
+        <v>191</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3009,22 +3250,22 @@
         <v>13</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D28" s="7">
-        <v>554</v>
-      </c>
-      <c r="E28" s="7">
-        <v>626</v>
+        <v>192</v>
+      </c>
+      <c r="D28" s="8">
+        <v>1165</v>
+      </c>
+      <c r="E28" s="8">
+        <v>1596</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3032,22 +3273,22 @@
         <v>14</v>
       </c>
       <c r="B29" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="D29" s="8">
+        <v>1296</v>
+      </c>
+      <c r="E29" s="8">
+        <v>1659</v>
+      </c>
+      <c r="F29" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="D29" s="7">
-        <v>1333</v>
-      </c>
-      <c r="E29" s="7">
-        <v>1600</v>
-      </c>
-      <c r="F29" s="3" t="s">
+      <c r="G29" s="3" t="s">
         <v>196</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3055,22 +3296,22 @@
         <v>15</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="D30" s="7">
-        <v>1308</v>
-      </c>
-      <c r="E30" s="7">
-        <v>1700</v>
+      <c r="D30" s="8">
+        <v>1167</v>
+      </c>
+      <c r="E30" s="8">
+        <v>1400</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>166</v>
+        <v>198</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3078,22 +3319,22 @@
         <v>16</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>163</v>
+        <v>188</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="D31" s="7">
-        <v>1042</v>
-      </c>
-      <c r="E31" s="7">
-        <v>1355</v>
+        <v>192</v>
+      </c>
+      <c r="D31" s="8">
+        <v>1350</v>
+      </c>
+      <c r="E31" s="8">
+        <v>1755</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3101,22 +3342,22 @@
         <v>17</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>167</v>
+        <v>189</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="D32" s="7">
-        <v>1065</v>
-      </c>
-      <c r="E32" s="7">
-        <v>1427</v>
+        <v>201</v>
+      </c>
+      <c r="D32" s="8">
+        <v>1015</v>
+      </c>
+      <c r="E32" s="8">
+        <v>1279</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>199</v>
+        <v>170</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3124,22 +3365,22 @@
         <v>18</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>171</v>
+        <v>202</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="D33" s="7">
-        <v>1193</v>
-      </c>
-      <c r="E33" s="7">
-        <v>1587</v>
+        <v>176</v>
+      </c>
+      <c r="D33" s="8">
+        <v>545</v>
+      </c>
+      <c r="E33" s="8">
+        <v>670</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>165</v>
+        <v>186</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3147,22 +3388,22 @@
         <v>19</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="D34" s="7">
-        <v>1264</v>
-      </c>
-      <c r="E34" s="7">
-        <v>1732</v>
+        <v>203</v>
+      </c>
+      <c r="D34" s="8">
+        <v>1221</v>
+      </c>
+      <c r="E34" s="8">
+        <v>1355</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>200</v>
+        <v>163</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>201</v>
+        <v>168</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3170,22 +3411,22 @@
         <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="D35" s="8">
+        <v>1060</v>
+      </c>
+      <c r="E35" s="8">
+        <v>1166</v>
+      </c>
+      <c r="F35" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="C35" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="D35" s="7">
-        <v>534</v>
-      </c>
-      <c r="E35" s="7">
-        <v>721</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>203</v>
-      </c>
       <c r="G35" s="3" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3193,22 +3434,22 @@
         <v>21</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>167</v>
+        <v>202</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="D36" s="7">
-        <v>1103</v>
-      </c>
-      <c r="E36" s="7">
-        <v>1423</v>
+        <v>166</v>
+      </c>
+      <c r="D36" s="8">
+        <v>1441</v>
+      </c>
+      <c r="E36" s="8">
+        <v>1945</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>165</v>
+        <v>193</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3216,22 +3457,22 @@
         <v>22</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="D37" s="7">
-        <v>595</v>
-      </c>
-      <c r="E37" s="7">
-        <v>702</v>
+        <v>204</v>
+      </c>
+      <c r="D37" s="8">
+        <v>1434</v>
+      </c>
+      <c r="E37" s="8">
+        <v>1706</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3239,22 +3480,22 @@
         <v>23</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>159</v>
+        <v>182</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="D38" s="7">
-        <v>1023</v>
-      </c>
-      <c r="E38" s="7">
-        <v>1176</v>
+        <v>205</v>
+      </c>
+      <c r="D38" s="8">
+        <v>1231</v>
+      </c>
+      <c r="E38" s="8">
+        <v>1686</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3262,22 +3503,22 @@
         <v>24</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>184</v>
+        <v>161</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="D39" s="7">
-        <v>1054</v>
-      </c>
-      <c r="E39" s="7">
-        <v>1307</v>
+        <v>171</v>
+      </c>
+      <c r="D39" s="8">
+        <v>1128</v>
+      </c>
+      <c r="E39" s="8">
+        <v>1579</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>179</v>
+        <v>206</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3285,22 +3526,22 @@
         <v>25</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="D40" s="7">
-        <v>897</v>
-      </c>
-      <c r="E40" s="7">
-        <v>1005</v>
+        <v>166</v>
+      </c>
+      <c r="D40" s="8">
+        <v>1119</v>
+      </c>
+      <c r="E40" s="8">
+        <v>1354</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>203</v>
+        <v>177</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3308,58 +3549,104 @@
         <v>26</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="D41" s="7">
-        <v>849</v>
-      </c>
-      <c r="E41" s="7">
-        <v>976</v>
+        <v>201</v>
+      </c>
+      <c r="D41" s="8">
+        <v>1378</v>
+      </c>
+      <c r="E41" s="8">
+        <v>1612</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="17" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="3">
+        <v>27</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="B45" s="6"/>
+      <c r="D42" s="8">
+        <v>1047</v>
+      </c>
+      <c r="E42" s="8">
+        <v>1246</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="3">
+        <v>28</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="D43" s="8">
+        <v>1290</v>
+      </c>
+      <c r="E43" s="8">
+        <v>1483</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" t="s">
-        <v>209</v>
-      </c>
-      <c r="B46" s="6"/>
+      <c r="A46" s="16" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
         <v>210</v>
       </c>
-      <c r="B47" s="6"/>
+      <c r="B47" s="7"/>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
         <v>211</v>
       </c>
-      <c r="B48" s="6"/>
+      <c r="B48" s="7"/>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
         <v>212</v>
       </c>
-      <c r="B49" s="6"/>
+      <c r="B49" s="7"/>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" t="s">
+        <v>213</v>
+      </c>
+      <c r="B50" s="7"/>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" t="s">
+        <v>214</v>
+      </c>
+      <c r="B51" s="7"/>
     </row>
   </sheetData>
   <mergeCells>
